--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC06FF-43CD-40D1-AAB1-4AF1FBCE366E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669E00C-597E-44D1-95F5-0A2AEF977091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,12 +274,21 @@
 16进制数大于80H时既可以看作是有符号数，也可以看作为无符号（对于8位寄存器）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">标志寄存器在Debug中的表示：
+AX=0000    BX=0000    CX=0000   DX=0000   SP=FFEE    BP=0000   SI=0000   DI=0000
+DS=0000    ES=0000    SS=0000    CS=0000    IP=0000    NV   UP   EI   PL   NZ   NA   PO   NC 
+                                                                                               ↑  ↑          ↑   ↑             ↑    ↑
+                                                                                             OF   DF          SP   ZF            PF    CF
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +354,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -540,11 +563,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,15 +594,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,19 +609,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,6 +617,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +969,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -943,39 +984,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="21" t="s">
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -996,24 +1055,24 @@
       <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1034,24 +1093,24 @@
       <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
@@ -1062,22 +1121,22 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1098,12 +1157,12 @@
       <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1124,12 +1183,12 @@
       <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
@@ -1140,10 +1199,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
@@ -1154,10 +1213,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
@@ -1172,13 +1231,13 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1196,60 +1255,62 @@
       <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669E00C-597E-44D1-95F5-0A2AEF977091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D07F9-A360-462F-98F5-E3EF580D9340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,35 +194,6 @@
   </si>
   <si>
     <t>进位标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>进行</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无符号数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运算时，它记录了运算结果的最高有效位向更高位的进位值，或从更高位的借位值(小减大)</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -283,12 +254,72 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>adc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc是带进位加法指令，它利用了CF位上记录的进位值（CF - 进位标志位）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无符号数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运算时，它记录了运算结果的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高有效位向更高位的进位值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或从更高位的借位值(小减大)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +393,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -576,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -618,28 +656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -647,6 +664,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,17 +969,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A11:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20" style="1"/>
+    <col min="1" max="2" width="20" style="15"/>
+    <col min="3" max="3" width="115.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="20" style="15"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -969,7 +1021,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -984,28 +1036,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1018,10 +1070,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>23</v>
@@ -1056,20 +1108,20 @@
         <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1101,13 +1153,13 @@
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -1127,13 +1179,13 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -1238,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -1256,56 +1308,56 @@
         <v>32</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D07F9-A360-462F-98F5-E3EF580D9340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F953D74-CB77-4DDF-AB3F-E68BF37C1258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>adc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adc是带进位加法指令，它利用了CF位上记录的进位值（CF - 进位标志位）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +308,37 @@
       </rPr>
       <t>，或从更高位的借位值(小减大)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带借位减法指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>它利用了CF位上记录的进位值（CF - 进位标志位）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带进位加法指令</t>
+  </si>
+  <si>
+    <t>它利用了CF位上记录的错位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令格式： sbb 操作对象1，操作对象2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：操作对象1 = 操作对象1 - 操作对象2 - CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：sbb ax, bx 实现的功能是：(ax)=(ax)-(bx)-CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:C11"/>
+  <dimension ref="A11:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -986,8 +1013,37 @@
       <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F953D74-CB77-4DDF-AB3F-E68BF37C1258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F19129-CB8A-4EF9-A407-264356F37809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -339,6 +339,31 @@
   </si>
   <si>
     <t>比如：sbb ax, bx 实现的功能是：(ax)=(ax)-(bx)-CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp的功能相当于减法指令，只是不保存结果。Cmp指令执行后，将对标志寄存器产生影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp指令格式：cmp 操作对象1，操作对象2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：计算操作对象1-操作对象2但不保存结果，仅仅根据计算结果对标志寄存器进行设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：指令 cmp ax, ax 做(ax)-(ax)的运算，结果为0，但并不存在ax中保存，仅影响flag的相关各位。指令执行后：
+ZF=1, PF=1, SF=0, CF=0, OF=0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,6 +740,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:C15"/>
+  <dimension ref="A11:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1072,32 @@
     <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="15" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F19129-CB8A-4EF9-A407-264356F37809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A538219-2ED2-4DC9-87FD-F548790FDF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,15 +243,6 @@
 溢出：运算结果超出了机器所能表达的范围，把符号位给顶了
 注意CF和OF的区别
 16进制数大于80H时既可以看作是有符号数，也可以看作为无符号（对于8位寄存器）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">标志寄存器在Debug中的表示：
-AX=0000    BX=0000    CX=0000   DX=0000   SP=FFEE    BP=0000   SI=0000   DI=0000
-DS=0000    ES=0000    SS=0000    CS=0000    IP=0000    NV   UP   EI   PL   NZ   NA   PO   NC 
-                                                                                               ↑  ↑          ↑   ↑             ↑    ↑
-                                                                                             OF   DF          SP   ZF            PF    CF
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -330,10 +321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指令格式： sbb 操作对象1，操作对象2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功能：操作对象1 = 操作对象1 - 操作对象2 - CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -351,10 +338,6 @@
   </si>
   <si>
     <t>cmp的功能相当于减法指令，只是不保存结果。Cmp指令执行后，将对标志寄存器产生影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmp指令格式：cmp 操作对象1，操作对象2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -364,6 +347,89 @@
   <si>
     <t>比如：指令 cmp ax, ax 做(ax)-(ax)的运算，结果为0，但并不存在ax中保存，仅影响flag的相关各位。指令执行后：
 ZF=1, PF=1, SF=0, CF=0, OF=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向标志位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在串处理指令中，控制每次操作后si、di的增减。DF=0，每次操作后si、di递增；DF=1，每次操作后si、di递减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movsb</t>
+  </si>
+  <si>
+    <t>movsb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>串传送指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：执行movsb相当于进行下面几步操作
+1. ((es)*16+(di))=((ds)*16+(si))    ----&gt; mov es:[di], byte ptr ds:[si]   ; 但是8086不支持这样的指令
+2. 如果df=0则：(si)=(si)+1          ----&gt; inc si
+                           (di)=(di)+1         ----&gt; inc di
+   如果DF=1则：(si)=(si)-1          ----&gt; dec     si
+                           (di)=(di)-1         ----&gt; dec di</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递增指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递减指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次运行加一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc reg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(reg)=(reg) + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次运行减一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec reg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(reg)=(reg) - 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp 操作对象1，操作对象2</t>
+  </si>
+  <si>
+    <t>sbb 操作对象1，操作对象2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标志寄存器在Debug中的表示：
+AX=0000    BX=0000    CX=0000   DX=0000   SP=FFEE    BP=0000   SI=0000   DI=0000
+DS=0000    ES=0000    SS=0000    CS=0000    IP=0000    NV   UP   EI   PL   NZ   NA   PO   NC 
+                                                                                             ↑    ↑          ↑   ↑             ↑    ↑
+                                                                                             OF   DF          SP   ZF            PF    CF
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,7 +775,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -742,7 +808,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,83 +1096,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:C20"/>
+  <dimension ref="A6:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="15"/>
-    <col min="3" max="3" width="115.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="115.5" style="26" customWidth="1"/>
     <col min="4" max="16384" width="20" style="15"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
+    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="15" t="s">
+    <row r="19" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="C19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="15" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="26" t="s">
+    <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="15" t="s">
         <v>63</v>
       </c>
+      <c r="C24" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1130,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1141,13 +1289,13 @@
     <col min="3" max="5" width="16.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="112.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="115.25" style="2" customWidth="1"/>
     <col min="9" max="16384" width="20" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1218,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1529,9 @@
       <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1543,9 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A538219-2ED2-4DC9-87FD-F548790FDF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53041FD0-A548-42E8-9159-945FF21A5187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,178 +27,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标志寄存器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首字母含义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Carry - 进位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pair - 成双</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zero - 零</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sign - 符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Overflow - 溢出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作的编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>补码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>零标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相关指令执行后，其结果是否为0。结果为0，ZF=1；结果不为0，ZF=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奇偶标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相关指令执行后，其所有的bit位中1的个数是否为偶数。如果1的个数为偶数，PF=1，如果为奇数，FP=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>符号标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相关指令执行后，结果是否为负。如果为负，SF=1；如果非负SF=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进位标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>溢出标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -227,15 +227,15 @@
       </rPr>
       <t>运算时，记录了运算是否溢出。如果发生溢出，OF=1；如果没有溢出，OF=0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真值 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>假值 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flag寄存器是按位起作用的，也就是说，它的每一位都有专门的含义，记录特定的信息
@@ -243,11 +243,11 @@
 溢出：运算结果超出了机器所能表达的范围，把符号位给顶了
 注意CF和OF的区别
 16进制数大于80H时既可以看作是有符号数，也可以看作为无符号（对于8位寄存器）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,74 +299,74 @@
       </rPr>
       <t>，或从更高位的借位值(小减大)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sbb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>带借位减法指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>它利用了CF位上记录的进位值（CF - 进位标志位）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>带进位加法指令</t>
   </si>
   <si>
     <t>它利用了CF位上记录的错位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能：操作对象1 = 操作对象1 - 操作对象2 - CF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比如：sbb ax, bx 实现的功能是：(ax)=(ax)-(bx)-CF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cmp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比较指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cmp的功能相当于减法指令，只是不保存结果。Cmp指令执行后，将对标志寄存器产生影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能：计算操作对象1-操作对象2但不保存结果，仅仅根据计算结果对标志寄存器进行设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比如：指令 cmp ax, ax 做(ax)-(ax)的运算，结果为0，但并不存在ax中保存，仅影响flag的相关各位。指令执行后：
 ZF=1, PF=1, SF=0, CF=0, OF=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方向标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在串处理指令中，控制每次操作后si、di的增减。DF=0，每次操作后si、di递增；DF=1，每次操作后si、di递减</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>movsb</t>
   </si>
   <si>
     <t>movsb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>串传送指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能：执行movsb相当于进行下面几步操作
@@ -375,47 +375,47 @@
                            (di)=(di)+1         ----&gt; inc di
    如果DF=1则：(si)=(si)-1          ----&gt; dec     si
                            (di)=(di)-1         ----&gt; dec di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>递增指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>递减指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每次运行加一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inc reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(reg)=(reg) + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每次运行减一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dec reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(reg)=(reg) - 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cmp 操作对象1，操作对象2</t>
@@ -430,23 +430,156 @@
                                                                                              ↑    ↑          ↑   ↑             ↑    ↑
                                                                                              OF   DF          SP   ZF            PF    CF
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp short reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp near ptr reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp far ptr reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用：可以实现32位、128位以及更高位的加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用：以实现32位、128位以及更高位的减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul 8_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev 8_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -732,89 +865,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,160 +1237,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:C24"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20" style="15"/>
-    <col min="3" max="3" width="115.5" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="20" style="15"/>
+    <col min="1" max="2" width="20" style="14"/>
+    <col min="3" max="3" width="115.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="20" style="14"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B6" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C25" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="15" t="s">
+    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C26" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C27" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="15" t="s">
+    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C28" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="32" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+    <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26" t="s">
+    <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+    <row r="39" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C39" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+    <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+    <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C43" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="15" t="s">
+    <row r="44" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A34:A37"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1257,18 +1518,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20" style="1"/>
+    <col min="1" max="16384" width="20" style="30"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1278,348 +1605,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="115.25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="20" style="2"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="115.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1633,7 +1960,7 @@
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53041FD0-A548-42E8-9159-945FF21A5187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD0DA1-14EE-47E2-9308-C7DC3AB58378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,22 +359,10 @@
   </si>
   <si>
     <t>movsb</t>
-  </si>
-  <si>
-    <t>movsb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>串传送指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能：执行movsb相当于进行下面几步操作
-1. ((es)*16+(di))=((ds)*16+(si))    ----&gt; mov es:[di], byte ptr ds:[si]   ; 但是8086不支持这样的指令
-2. 如果df=0则：(si)=(si)+1          ----&gt; inc si
-                           (di)=(di)+1         ----&gt; inc di
-   如果DF=1则：(si)=(si)-1          ----&gt; dec     si
-                           (di)=(di)-1         ----&gt; dec di</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,6 +558,136 @@
   </si>
   <si>
     <t>dev 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movsw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【配合rep使用】
+movsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【配合rep使用】
+movsw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep movsb/movsw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用汇编语法来描述 rep movsb 的功能就是：
+s: movsb
+   loop s                     ----&gt; 根据cx中的值进行设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据cx中的值，重复执行后面的串传送指令。由于每次执行 movsb/movsw 指令si和di都会递增或递减指向后一个或前一个内存单元，所以 rep movsb/movsw 就可以循环实现(cx)个字符的传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于flag的df位决定着串传送指令执行后，si 和 di 改变的方向，所以CPU提供相应的指令来对DF位进行设置，从而使程序员能够决定传送的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>功能：执行movsw相当于进行下面几步操作
+1. ((es)*16+(di))=((ds)*16+(si))    ----&gt; mov es:[di],</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ptr ds:[si]   ; 但是8086不支持这样的指令
+2. 如果 DF=0 则：(si)=(si)+2          ----&gt; add si, 2
+                           (di)=(di)+2         ----&gt; add di, 2
+   如果 DF=1 则：(si)=(si)-2          ----&gt; sub si, 2
+                           (di)=(di)-2         ----&gt; sub di, 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>功能：执行movsb相当于进行下面几步操作
+1. ((es)*16+(di))=((ds)*16+(si))    ----&gt; mov es:[di],</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> byte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ptr ds:[si]   ; 但是8086不支持这样的指令
+2. 如果 DF=0 则：(si)=(si)+1          ----&gt; inc si
+                           (di)=(di)+1         ----&gt; inc di
+   如果 DF=1 则：(si)=(si)-1          ----&gt; dec     si
+                           (di)=(di)-1         ----&gt; dec di</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将标志寄存器的 DF 设置为 0   ==&gt; 在执行 movsb/movsw 时，si、di 递增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将标志寄存器的 DF 设置为 1   ==&gt; 在执行 movsb/movsw 时，si、di 递减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,6 +1042,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -955,7 +1082,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1252,44 +1379,47 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="17"/>
     </row>
@@ -1298,39 +1428,39 @@
     </row>
     <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="17"/>
     </row>
@@ -1342,60 +1472,60 @@
     </row>
     <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="15" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14" t="s">
+    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,11 +1541,11 @@
     </row>
     <row r="33" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -1426,30 +1556,30 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18" t="s">
-        <v>78</v>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -1460,46 +1590,117 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
-        <v>77</v>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>66</v>
+      <c r="C43" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="18" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C43:C44"/>
@@ -1526,72 +1727,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20" style="30"/>
+    <col min="1" max="16384" width="20" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="4" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+    <row r="5" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="6" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="7" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+    <row r="8" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="10" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="11" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="12" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+    <row r="13" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1621,28 +1822,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1700,13 +1901,13 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
@@ -1738,13 +1939,13 @@
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -1764,13 +1965,13 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1904,49 +2105,49 @@
       <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD0DA1-14EE-47E2-9308-C7DC3AB58378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EED246-B205-40CE-AC9B-AE0C412DF356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="30120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17535" yWindow="0" windowWidth="31185" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
-    <sheet name="寄存器" sheetId="2" r:id="rId2"/>
-    <sheet name="标志寄存器" sheetId="3" r:id="rId3"/>
+    <sheet name="普通寄存器" sheetId="2" r:id="rId2"/>
+    <sheet name="标志寄存器 PSW" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,12 +690,80 @@
     <t>dup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pushF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD - program status word 程序状态字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标志寄存器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的值压栈【栈和push和pop用的是同一个栈】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从栈中弹出数据，送入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标志寄存器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中【栈和push和pop用的是同一个栈】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,8 +837,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +866,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -983,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,24 +1083,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,6 +1120,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1060,29 +1134,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,336 +1453,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20" style="14"/>
-    <col min="3" max="3" width="115.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="20" style="14"/>
+    <col min="1" max="2" width="20" style="10"/>
+    <col min="3" max="3" width="115.5" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="17" t="s">
+    <row r="33" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="18" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="15" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1722,76 +1824,76 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20" style="20"/>
+    <col min="1" max="16384" width="20" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1804,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1821,345 +1923,358 @@
     <col min="9" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="13" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="12" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
         <v>12</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
         <v>13</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
         <v>15</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B16:H16"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EED246-B205-40CE-AC9B-AE0C412DF356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0349B8-AB12-4918-A6F1-FA4D84C2C142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="0" windowWidth="31185" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28395" yWindow="0" windowWidth="31185" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -1119,12 +1119,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,10 +1152,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,24 +1171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1645,8 +1645,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -1654,21 +1654,21 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1679,8 +1679,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -1688,55 +1688,55 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="19"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1753,8 +1753,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1924,64 +1924,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2012,16 +2012,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2050,16 +2050,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2076,16 +2076,16 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2216,52 +2216,52 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0349B8-AB12-4918-A6F1-FA4D84C2C142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140EC33-11DC-4647-BB9B-38F60FCFECF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28395" yWindow="0" windowWidth="31185" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="390" windowWidth="31185" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1908,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140EC33-11DC-4647-BB9B-38F60FCFECF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94883500-6F1B-4863-B5A7-B7CBA3956F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="390" windowWidth="31185" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,45 @@
       </rPr>
       <t>中【栈和push和pop用的是同一个栈】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在CPU执行完一条指令后，如果检测到TF为1，则产生单步中断。单步中断的中断类型码为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 是中断类型码，它的功能是引发中断过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令原理：
+pop IP
+pop CS
+popf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议 int n 调用的程序用 iret 代替 ret，因为使用 int 时把标志寄存器入栈了需要用 popf 恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,6 +1172,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1453,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1513,305 +1558,338 @@
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="10" t="s">
+    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="10" t="s">
+    <row r="29" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="13" t="s">
+    <row r="34" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
+    <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="13" t="s">
+    <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="11" t="s">
+    <row r="38" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+    <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23" t="s">
+    <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+    <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-    </row>
     <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="24"/>
-    </row>
-    <row r="45" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="14" t="s">
+    <row r="47" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="24"/>
-    </row>
-    <row r="47" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="C47" s="26"/>
+    </row>
+    <row r="48" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="11" t="s">
+    <row r="50" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="11" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,7 +1987,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1924,40 +2002,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2015,13 +2093,13 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2053,13 +2131,13 @@
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2079,13 +2157,13 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2151,7 +2229,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2219,49 +2299,49 @@
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94883500-6F1B-4863-B5A7-B7CBA3956F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43873D17-0951-485F-93E8-B205C116046E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1170" windowWidth="36405" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,12 +797,72 @@
     <t>retf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 端口, al/ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 al/ax中的数据送入端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in al/ax, 端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 端口 中的信息送入 al/ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑(左移)位移指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑(右移)位移指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mov al, 01001000B
+shl al, 1                    --&gt; 将 al 中的数据左移一位，移出的一位放在CF中。
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果位移的位数大于1时，必须将移动位数放在 CL 中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +945,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1105,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,6 +1292,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1873,6 +1954,47 @@
     <row r="57" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="11" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43873D17-0951-485F-93E8-B205C116046E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA8C52-2E52-40CF-94EA-6F6E4127DE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="36405" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="60" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转移指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加法指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,12 +853,232 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口的输入输出只能用ax、al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认与ss相关联，比如[bp]其实是 ss:[bp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU是否响应可屏蔽中断。如果IF=1，CPU在执行完当前指令后响应中断，引发中断过程；IF=0，不响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 IF=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 IF=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xchg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无条件转移指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件转移指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>je</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理机控制指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串处理指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是BCD指令集中的一个指令，用于在两个未打包的BCD值相加后，调整al和ah寄存器的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,8 +1176,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,8 +1219,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1176,11 +1425,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1254,12 +1542,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,15 +1593,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,439 +1899,833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20" style="10"/>
-    <col min="3" max="3" width="115.5" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="20" style="10"/>
+    <col min="1" max="1" width="20" style="27"/>
+    <col min="2" max="3" width="20" style="10"/>
+    <col min="4" max="4" width="115.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20" style="46"/>
+    <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="47" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="D18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="47" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="49"/>
+    </row>
+    <row r="35" spans="1:4" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="47" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="49"/>
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="28"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
+      <c r="B58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29"/>
+      <c r="B62" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="29"/>
+      <c r="B63" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" s="47" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="49"/>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="29"/>
+      <c r="B68" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="29"/>
+      <c r="B69" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="29"/>
+      <c r="B70" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="29"/>
+      <c r="B71" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="29"/>
+      <c r="B74" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
+      <c r="B75" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="29"/>
+      <c r="B76" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="46"/>
+    </row>
+    <row r="77" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="29"/>
+      <c r="B77" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="46"/>
+    </row>
+    <row r="78" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="47" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="49"/>
+    </row>
+    <row r="80" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C82" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="10" t="s">
+      <c r="D82" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="14" t="s">
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="29"/>
+      <c r="B84" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="29"/>
+      <c r="B85" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="29"/>
+      <c r="B86" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="29"/>
+      <c r="B87" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="26"/>
-    </row>
-    <row r="48" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="D88" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D89" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25" t="s">
+      <c r="E89" s="46"/>
+    </row>
+    <row r="90" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="11" t="s">
+    </row>
+    <row r="91" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="29"/>
+      <c r="B91" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+      <c r="B92" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="47" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="49"/>
+    </row>
+    <row r="94" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="29"/>
+      <c r="B94" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="D94" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
+      <c r="D95" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>153</v>
-      </c>
+    </row>
+    <row r="96" spans="1:5" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="45"/>
+      <c r="E96" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A35:A38"/>
+  <mergeCells count="27">
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A11:A33"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2021,79 +2735,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20" style="16"/>
+    <col min="1" max="3" width="20" style="16"/>
+    <col min="4" max="4" width="52" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="20" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="6" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="D7" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="12" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2108,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2124,40 +2851,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2215,13 +2942,13 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2253,13 +2980,13 @@
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2279,13 +3006,13 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2352,7 +3079,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2367,7 +3094,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2421,49 +3150,49 @@
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA8C52-2E52-40CF-94EA-6F6E4127DE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6CACD-7BB4-41D1-AF54-13A71E7B2BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="60" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="120" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -878,14 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置 IF=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置 IF=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1071,6 +1063,14 @@
   </si>
   <si>
     <t>是BCD指令集中的一个指令，用于在两个未打包的BCD值相加后，调整al和ah寄存器的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 IF=1，如果IF = 1：响应可屏蔽中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 IF=0，如果IF = 0：不响应可屏蔽中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,9 +1554,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,30 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1910,36 +1910,36 @@
     <col min="1" max="1" width="20" style="27"/>
     <col min="2" max="3" width="20" style="10"/>
     <col min="4" max="4" width="115.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="46"/>
+    <col min="5" max="5" width="20" style="31"/>
     <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>167</v>
+      <c r="A1" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="28"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="28"/>
-      <c r="E3" s="46"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="17" t="s">
         <v>129</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="17" t="s">
         <v>130</v>
       </c>
@@ -1957,23 +1957,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="28"/>
-      <c r="E7" s="46"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="10" t="s">
         <v>143</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="10" t="s">
         <v>144</v>
       </c>
@@ -1996,12 +1996,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="47" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
+    <row r="10" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>166</v>
+      <c r="A11" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>79</v>
@@ -2011,7 +2011,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="12" t="s">
         <v>101</v>
       </c>
@@ -2019,11 +2019,11 @@
         <v>102</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="46"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="10" t="s">
         <v>70</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
@@ -2066,8 +2066,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2078,16 +2078,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="D18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2098,9 +2098,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -2108,24 +2108,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2136,9 +2136,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -2146,51 +2146,51 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="46"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="46"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -2198,65 +2198,65 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="47" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="49"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
-        <v>179</v>
+      <c r="A35" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="10" t="s">
+    <row r="38" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="10" t="s">
+    <row r="39" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="40" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="10" t="s">
         <v>149</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="10" t="s">
         <v>150</v>
       </c>
@@ -2277,49 +2277,49 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="10" t="s">
+    <row r="45" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="10" t="s">
+    <row r="46" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="10" t="s">
+    <row r="47" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="1:4" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="47" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="49"/>
-    </row>
-    <row r="49" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="35" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2328,88 +2328,88 @@
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="28"/>
-      <c r="E52" s="46"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>181</v>
+      <c r="A53" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>80</v>
@@ -2418,8 +2418,8 @@
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>190</v>
+      <c r="A61" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>83</v>
@@ -2428,7 +2428,7 @@
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="10" t="s">
         <v>141</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="10" t="s">
         <v>142</v>
       </c>
@@ -2444,8 +2444,8 @@
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
-        <v>191</v>
+      <c r="A64" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>135</v>
@@ -2458,19 +2458,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:5" s="47" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="49"/>
+    <row r="66" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>200</v>
+      <c r="A67" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>120</v>
@@ -2483,7 +2483,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="14" t="s">
         <v>121</v>
       </c>
@@ -2495,149 +2495,149 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="23" t="s">
         <v>158</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="46"/>
+        <v>207</v>
+      </c>
+      <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="23" t="s">
         <v>159</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70" s="46"/>
+        <v>208</v>
+      </c>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="36"/>
+      <c r="B72" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="36"/>
+      <c r="B73" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="10" t="s">
+    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="36"/>
+      <c r="B74" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="10" t="s">
+    <row r="75" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="36"/>
+      <c r="B75" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="10" t="s">
+    <row r="76" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="36"/>
+      <c r="B76" s="27" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="10" t="s">
+      <c r="D76" s="28"/>
+      <c r="E76" s="31"/>
+    </row>
+    <row r="77" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="36"/>
+      <c r="B77" s="27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="27" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="31"/>
+    </row>
+    <row r="78" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="46"/>
-    </row>
-    <row r="77" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
-      <c r="B77" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="46"/>
-    </row>
-    <row r="78" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="47" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="49"/>
+    </row>
+    <row r="79" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" s="29" t="s">
+      <c r="A80" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="30"/>
+      <c r="D81" s="38"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="30"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="36"/>
+      <c r="B85" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="36"/>
+      <c r="B86" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
-      <c r="B85" s="10" t="s">
+    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="36"/>
+      <c r="B87" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="29"/>
-      <c r="B86" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
-      <c r="B87" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
     <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36" t="s">
         <v>115</v>
       </c>
       <c r="D88" s="11" t="s">
@@ -2645,41 +2645,41 @@
       </c>
     </row>
     <row r="89" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E89" s="46"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="47" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="49"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="32" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="34"/>
     </row>
     <row r="94" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="29"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="10" t="s">
         <v>138</v>
       </c>
@@ -2688,29 +2688,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
+      <c r="A95" s="36"/>
       <c r="D95" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="44" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="45"/>
-      <c r="E96" s="48"/>
+    <row r="96" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="30"/>
+      <c r="E96" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B82:B83"/>
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="B88:B90"/>
@@ -2726,6 +2714,18 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A11:A33"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,40 +2851,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2942,13 +2942,13 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2980,13 +2980,13 @@
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -3006,13 +3006,13 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -3150,49 +3150,49 @@
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6CACD-7BB4-41D1-AF54-13A71E7B2BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B837C-D43F-43F1-8879-519EC877808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="120" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="215">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,6 +1071,30 @@
   </si>
   <si>
     <t>设置 IF=0，如果IF = 0：不响应可屏蔽中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得某一标号的段地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFSET 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得某一标号的偏移地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,17 +1596,17 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1899,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1985,7 +2009,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>144</v>
       </c>
@@ -2149,7 +2173,7 @@
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2157,7 +2181,7 @@
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
@@ -2224,7 +2248,7 @@
       <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2307,7 +2331,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="10" t="s">
         <v>176</v>
       </c>
@@ -2316,10 +2340,10 @@
       <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2469,7 +2493,7 @@
       <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="37" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -2561,7 +2585,7 @@
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="10" t="s">
         <v>197</v>
       </c>
@@ -2570,7 +2594,7 @@
       <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B80" s="36" t="s">
@@ -2579,7 +2603,7 @@
       <c r="C80" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="35" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2589,7 +2613,7 @@
       <c r="C81" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="38"/>
+      <c r="D81" s="35"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36"/>
@@ -2599,7 +2623,7 @@
       <c r="C82" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2609,7 +2633,7 @@
       <c r="C83" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="38"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
@@ -2670,7 +2694,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="10" t="s">
         <v>200</v>
       </c>
@@ -2697,8 +2721,42 @@
       <c r="D96" s="30"/>
       <c r="E96" s="33"/>
     </row>
+    <row r="97" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A11:A33"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="B88:B90"/>
@@ -2714,18 +2772,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B837C-D43F-43F1-8879-519EC877808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4BB23-D798-48C0-8562-9F4869A31B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="16635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15435" yWindow="0" windowWidth="34170" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="300">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,9 +409,6 @@
     <t>cmp 操作对象1，操作对象2</t>
   </si>
   <si>
-    <t>sbb 操作对象1，操作对象2</t>
-  </si>
-  <si>
     <t xml:space="preserve">标志寄存器在Debug中的表示：
 AX=0000    BX=0000    CX=0000   DX=0000   SP=FFEE    BP=0000   SI=0000   DI=0000
 DS=0000    ES=0000    SS=0000    CS=0000    IP=0000    NV   UP   EI   PL   NZ   NA   PO   NC 
@@ -802,22 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out 端口, al/ax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将 al/ax中的数据送入端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in al/ax, 端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将 端口 中的信息送入 al/ax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,18 +835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口的输入输出只能用ax、al</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认与ss相关联，比如[bp]其实是 ss:[bp]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPU是否响应可屏蔽中断。如果IF=1，CPU在执行完当前指令后响应中断，引发中断过程；IF=0，不响应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1095,6 +1064,364 @@
   </si>
   <si>
     <t>取得某一标号的偏移地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据段寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码段寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加寄存器/累加器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地址寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数器寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈指针寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基指针寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变址寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源变址寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地址寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令指针寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈段寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加段寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Stack Pointer</t>
+  </si>
+  <si>
+    <t>Base Pointer</t>
+  </si>
+  <si>
+    <t>Source Index</t>
+  </si>
+  <si>
+    <t>Destination Index</t>
+  </si>
+  <si>
+    <t>Instruction Pointer</t>
+  </si>
+  <si>
+    <t>Code Segment</t>
+  </si>
+  <si>
+    <t>Data Segment</t>
+  </si>
+  <si>
+    <t>Stack Segment</t>
+  </si>
+  <si>
+    <t>Extra Segment</t>
+  </si>
+  <si>
+    <t>储存循环次数，loop, jcxz指令会调用cx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用来储存数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常与ds, es 连用；[bx] 默认调用ds:[bx]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于 ds:[si]，存放偏移地址，数据从哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于 es:[di]，存放偏移地址，数据到哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于 ds:[si]，存放段地址，数据从哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于 es:[di]，存放段地址，数据到哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放栈顶的偏移地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放栈的段地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放执行指令的段地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放执行指令的偏移地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:[ip]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds:[si]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es:[di]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss:[sp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令从哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据从哪里来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据到哪里去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div除法指令和mul乘法指令会调用；端口的输入输出只能用ax、al存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认与ss相关联，比如 [bp] 默认调用 ss:[bp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AX, BX, CX, DX 可以分为两个独立的 8 位的 ?H 和 ?L 寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质参考资料：https://zhuanlan.zhihu.com/p/115915986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助进位标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请见下一表格《标志寄存器 PSW》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov reg, reg/idata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db/dw/dd idata dup (data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把字压入堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把字弹出堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换字或字节.(至少有一个操作数为寄存器,段寄存器不可作为操作数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送字或字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 I/O端口 中的信息送入 al/ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 al/ax中的数据送入 I/O端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in al/ax, 端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 端口号, al/ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环写入数据 idata 为循环次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (reg1) = (reg1) + (reg2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (reg1) = (reg1) 1 (reg3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add reg1, reg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add reg, idata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub reg1, reg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub reg, idata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbb reg1，reg2</t>
+  </si>
+  <si>
+    <t>adc reg1，reg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：adc ax, bx 实现的功能是：(ax)=(ax)+(bx)+CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个相乘的数，要么都是8位，要么都是16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘数，一个默认放AL中，另一个是 8_reg 或内存单元；结果：放AX中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘数，一个默认放AX中，另一个是 16_reg 或内存单元；结果：AX中存放低16位，DX存放高16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除数：有8位和16位两种，在一个reg或者内存单元中。除数为8位，被除数为16位；除数为16位，被除数为32位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被除数：默认存放在 AX 中；结果：AL - 商，AH - 余数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1544,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1260,7 +1609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1482,6 +1831,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1492,7 +2140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1602,12 +2250,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,6 +2297,141 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1658,6 +2450,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>519210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442603</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>371474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8B3F4-B99A-4702-BE3E-C4A6C1FD821B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12954000" y="4348260"/>
+          <a:ext cx="7176778" cy="5595839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1923,855 +2764,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="27"/>
-    <col min="2" max="3" width="20" style="10"/>
-    <col min="4" max="4" width="115.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10"/>
+    <col min="3" max="3" width="23" style="10" customWidth="1"/>
+    <col min="4" max="4" width="119.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="20" style="31"/>
     <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>165</v>
+      <c r="A1" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="28"/>
+        <v>152</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>277</v>
+      </c>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="28"/>
+        <v>153</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="6" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="28"/>
+        <v>127</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>285</v>
+      </c>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>279</v>
+      </c>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="D18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="10" t="s">
+      <c r="C54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="31"/>
+    </row>
+    <row r="57" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="28"/>
+      <c r="E57" s="31"/>
+    </row>
+    <row r="58" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="31"/>
-    </row>
-    <row r="51" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="31"/>
-    </row>
-    <row r="52" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="28"/>
-      <c r="E52" s="31"/>
-    </row>
-    <row r="53" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="A60" s="39"/>
       <c r="B60" s="10" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36" t="s">
-        <v>188</v>
-      </c>
+      <c r="A61" s="39"/>
       <c r="B61" s="10" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="10" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="10" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
-        <v>189</v>
-      </c>
+      <c r="A64" s="39"/>
       <c r="B64" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
+        <v>178</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="B65" s="10" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="34"/>
-    </row>
-    <row r="67" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="14" t="s">
+    <row r="66" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D73" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="14" t="s">
+    <row r="74" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="31"/>
+    </row>
+    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="31"/>
+    </row>
+    <row r="82" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
+      <c r="B82" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="31"/>
+    </row>
+    <row r="83" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="34"/>
+    </row>
+    <row r="85" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="41"/>
+    </row>
+    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="31"/>
-    </row>
-    <row r="70" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
-      <c r="B70" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="31"/>
-    </row>
-    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
-      <c r="B72" s="10" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="41"/>
+    </row>
+    <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="39"/>
+      <c r="B92" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="31"/>
+    </row>
+    <row r="95" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="10" t="s">
+    <row r="97" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
-      <c r="B75" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
-      <c r="B76" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="31"/>
-    </row>
-    <row r="77" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
-      <c r="B77" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="31"/>
-    </row>
-    <row r="78" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="34"/>
-    </row>
-    <row r="80" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+    <row r="98" spans="1:5" s="32" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="34"/>
+    </row>
+    <row r="99" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="D100" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="30"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="35"/>
-    </row>
-    <row r="82" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="35"/>
-    </row>
-    <row r="84" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
-      <c r="B84" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="10" t="s">
+      <c r="D102" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="10" t="s">
+      <c r="C103" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="31"/>
-    </row>
-    <row r="90" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
-      <c r="B91" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="32" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="34"/>
-    </row>
-    <row r="94" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
-      <c r="D95" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="30"/>
-      <c r="E96" s="33"/>
-    </row>
-    <row r="97" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A94:A95"/>
+  <mergeCells count="30">
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A100"/>
     <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,99 +3723,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20" style="16"/>
-    <col min="4" max="4" width="52" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="20" style="16"/>
+    <col min="1" max="1" width="20" style="16"/>
+    <col min="2" max="2" width="20" style="37"/>
+    <col min="3" max="3" width="20" style="16"/>
+    <col min="4" max="4" width="21.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="76" style="16" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="15" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="20" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="94"/>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" s="94"/>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="C6" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="C8" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="86" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="87" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="88" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="C13" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="C14" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="53" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+    </row>
+    <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="54"/>
+    </row>
+    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+    </row>
+    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2881,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC954F4D-A1FD-470B-8B78-559B169FBECA}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2897,40 +4113,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2988,13 +4204,13 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -3026,19 +4242,21 @@
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
@@ -3052,13 +4270,13 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -3116,7 +4334,9 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
@@ -3125,14 +4345,16 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +4363,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,49 +4418,49 @@
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4BB23-D798-48C0-8562-9F4869A31B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901ECC1A-2079-4699-A1CA-619DE0A28EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="0" windowWidth="34170" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="361">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,18 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jmp short reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jmp near ptr reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jmp far ptr reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加法指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,6 +1410,362 @@
   </si>
   <si>
     <t>被除数：默认存放在 AX 中；结果：AL - 商，AH - 余数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑或</t>
+  </si>
+  <si>
+    <t>两位都为1，则此位对应的结果为1；如果有一位为0，则此位对应的结果为。1110 and 0010 = 0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要有一位为1，则此位对应的结果为1。1110 or 0010 = 1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 cmp ?, ? 配合使用。如符合条件则跳转到标号处运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcxz 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>je 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jne 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jnb 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jna 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数返回，与 call 搭配使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call far ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call far ptr 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入栈后，跳转到标号处运行，遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CS:IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入栈后，跳转到标号处运行，遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ret</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数返回，与 call far ptr 搭配使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无意义，占用 1Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp short 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp near ptr 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp far ptr 标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp  标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动适配以上指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六位位移，适用范围 disp∈[-32768, 32767]，机器码 EB disp_16，占用 3 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八位位移，适用范围 disp∈[-128, 127]，机器码 EB disp_8，占用 2 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段间转移，又称远转移。同时修改CS和IP，机器码 EA disp，占用 5 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P181</t>
+  </si>
+  <si>
+    <t>jmp word ptr 地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp dword ptr 地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段内转移，地址可以是 0123H、ds:[si]、bx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段间转移，地址可以是 01245678H、ds:[si]；其中，高地址是转移的目的段地址(CS)，低地址是偏移地址(IP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P182</t>
+  </si>
+  <si>
+    <t>P182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断cx是否为0，如果为 cx 中的值0则跳转到标号处运行；对 IP 的修改范围 [-128, 127]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据 cx 中的值判断是否循环执行；每执行一次 cx 中的值自动减一；对 IP 的修改范围 [-128, 127]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>P226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每位左移, 低位补 0,  高位进 CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术右移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每位右移, 低位进 CF, 高位不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环左移, 高位到低位并送 CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环右移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环右移, 低位到高位并送 CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带进位循环左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环左移, 进位值(原CF)到低位, 高位进 CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带进位循环右移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环右移, 进位值(原CF)到高位, 低位进 CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2140,7 +2484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,227 +2555,236 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2764,202 +3117,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="27"/>
+    <col min="1" max="1" width="20" style="26"/>
     <col min="2" max="2" width="20" style="10"/>
     <col min="3" max="3" width="23" style="10" customWidth="1"/>
     <col min="4" max="4" width="119.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="31"/>
+    <col min="5" max="5" width="20" style="30"/>
     <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>157</v>
+      <c r="A1" s="68" t="s">
+        <v>154</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D6" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="27" t="s">
+      <c r="D8" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="31" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="B11" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36" t="s">
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2970,8 +3323,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="10" t="s">
         <v>70</v>
       </c>
@@ -2980,8 +3333,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2992,8 +3345,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
@@ -3002,8 +3355,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -3013,29 +3366,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
-        <v>293</v>
+    <row r="22" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68" t="s">
+        <v>290</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3046,34 +3399,34 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39" t="s">
-        <v>292</v>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68" t="s">
+        <v>289</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3084,9 +3437,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -3094,626 +3447,887 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="41" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="41"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="67"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39" t="s">
-        <v>103</v>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="12" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D37" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="12" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="31" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+      <c r="B41" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="68"/>
+      <c r="B42" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+      <c r="B43" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+      <c r="B44" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="68"/>
+      <c r="B45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+      <c r="B46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68"/>
+      <c r="B47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="100" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="68"/>
+      <c r="B49" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="100" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="68"/>
+      <c r="B50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="68"/>
+      <c r="B51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" s="100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="31" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="68"/>
+      <c r="B61" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="67"/>
+      <c r="E62" s="99"/>
+    </row>
+    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="68"/>
+      <c r="B63" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="99"/>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="68"/>
+      <c r="B65" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E65" s="99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D66" s="67"/>
+      <c r="E66" s="99"/>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="68"/>
+      <c r="B67" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="67"/>
+      <c r="E68" s="99"/>
+    </row>
+    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="68"/>
+      <c r="B69" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" s="99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" s="67"/>
+      <c r="E70" s="99"/>
+    </row>
+    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="68"/>
+      <c r="B71" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" s="99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="99"/>
+    </row>
+    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="68"/>
+      <c r="B75" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="68"/>
+      <c r="B76" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="68"/>
+      <c r="B77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="68"/>
+      <c r="B79" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="37" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="1:5" s="31" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="33"/>
+    </row>
+    <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="68"/>
+      <c r="B83" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="68"/>
+      <c r="B84" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="68"/>
+      <c r="B85" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="30"/>
+    </row>
+    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="68"/>
+      <c r="B86" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="68"/>
+      <c r="B87" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="38"/>
+    </row>
+    <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="68"/>
+      <c r="B88" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="38"/>
+    </row>
+    <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="68"/>
+      <c r="B89" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="68"/>
+      <c r="B90" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="68"/>
+      <c r="B91" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="27"/>
+      <c r="E91" s="30"/>
+    </row>
+    <row r="92" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="68"/>
+      <c r="B92" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="30"/>
+    </row>
+    <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
+      <c r="B93" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="31" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="33"/>
+    </row>
+    <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="68"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="67"/>
+    </row>
+    <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="68"/>
+      <c r="B97" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="10" t="s">
+      <c r="C97" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="D98" s="67"/>
+    </row>
+    <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="68"/>
+      <c r="B99" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="68"/>
+      <c r="B100" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="68"/>
+      <c r="B101" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="68"/>
+      <c r="B102" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="68"/>
+      <c r="B103" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="30"/>
+    </row>
+    <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="68"/>
+      <c r="B106" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
+      <c r="B107" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="31" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="33"/>
+    </row>
+    <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="31"/>
-    </row>
-    <row r="56" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="31"/>
-    </row>
-    <row r="57" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="28"/>
-      <c r="E57" s="31"/>
-    </row>
-    <row r="58" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-      <c r="B68" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" s="32" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="34"/>
-    </row>
-    <row r="72" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="24" t="s">
+      <c r="C109" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="68"/>
+      <c r="B110" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E74" s="31"/>
-    </row>
-    <row r="75" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-      <c r="B75" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="24" t="s">
+      <c r="C110" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E75" s="31"/>
-    </row>
-    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-      <c r="B76" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-      <c r="B77" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="31"/>
-    </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="31"/>
-    </row>
-    <row r="83" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="32" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="34"/>
-    </row>
-    <row r="85" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="41"/>
-    </row>
-    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="41"/>
-    </row>
-    <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39"/>
-      <c r="B89" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
-      <c r="B90" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="39"/>
-      <c r="B91" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="39"/>
-      <c r="B92" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="31"/>
-    </row>
-    <row r="95" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
-      <c r="B96" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="32" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="34"/>
-    </row>
-    <row r="99" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
-      <c r="B99" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
-      <c r="D100" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="30"/>
-      <c r="E101" s="33"/>
-    </row>
-    <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>203</v>
-      </c>
+    </row>
+    <row r="111" spans="1:5" s="28" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="29"/>
+      <c r="E111" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B93:B95"/>
+  <mergeCells count="50">
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B103:B105"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D95:D96"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B95:B96"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,14 +4339,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="16"/>
-    <col min="2" max="2" width="20" style="37"/>
+    <col min="2" max="2" width="20" style="36"/>
     <col min="3" max="3" width="20" style="16"/>
     <col min="4" max="4" width="21.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="76" style="16" customWidth="1"/>
@@ -3743,336 +4357,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="73" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="82"/>
+      <c r="H6" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-    </row>
-    <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="62" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I4" s="93" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="94"/>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="69" t="s">
+      <c r="B15" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="62" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="59" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="53" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E15" s="48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="54"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="54"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G3:G6"/>
@@ -4085,6 +4694,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4113,40 +4727,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -4204,13 +4818,13 @@
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -4242,20 +4856,20 @@
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -4270,13 +4884,13 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -4335,7 +4949,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -4345,7 +4959,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4353,7 +4967,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -4363,7 +4977,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,49 +5032,49 @@
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901ECC1A-2079-4699-A1CA-619DE0A28EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB7218-1FB7-4754-8905-54EB79BE9FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="28545" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -803,26 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">mov al, 01001000B
-shl al, 1                    --&gt; 将 al 中的数据左移一位，移出的一位放在CF中。
-                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果位移的位数大于1时，必须将移动位数放在 CL 中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPU是否响应可屏蔽中断。如果IF=1，CPU在执行完当前指令后响应中断，引发中断过程；IF=0，不响应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,19 +1019,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取得某一标号的段地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>seg 标号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OFFSET 标号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得某一标号的偏移地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1725,10 +1697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每位左移, 低位补 0,  高位进 CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算术右移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1766,6 +1734,110 @@
   </si>
   <si>
     <t>循环右移, 进位值(原CF)到高位, 低位进 CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mov al, 01001000B
+shl al, 1                    --&gt; 将 al 中的数据左移一位，移出的一位放在CF中。
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与SAL相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果位移的位数大于1时，必须将移动位数放在 CL 中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与SHL相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每位左移, 低位补 0,  高位进 CF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取得某一标号的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取得某一标号的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偏移地址</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1773,7 +1845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,8 +1982,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,8 +2033,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2158,9 +2245,312 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
@@ -2168,22 +2558,39 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2192,7 +2599,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2205,7 +2614,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2218,254 +2629,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2484,7 +2650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2523,87 +2689,162 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2612,139 +2853,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2780,11 +2907,92 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3120,1164 +3328,1257 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="26"/>
+    <col min="1" max="1" width="20" style="21"/>
     <col min="2" max="2" width="20" style="10"/>
     <col min="3" max="3" width="23" style="10" customWidth="1"/>
     <col min="4" max="4" width="119.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="30"/>
+    <col min="5" max="5" width="20" style="24"/>
     <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="111"/>
+      <c r="B2" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111"/>
+      <c r="B3" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="111"/>
+      <c r="B5" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="111"/>
+      <c r="B7" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="111"/>
+      <c r="B8" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="25" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="86"/>
+    </row>
+    <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="111"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="111"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="111"/>
+      <c r="B14" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="111"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="111"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="111"/>
+      <c r="B17" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="111"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="111"/>
+      <c r="B19" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="111"/>
+      <c r="B21" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="111"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="111"/>
+      <c r="B24" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="111"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="111"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="111"/>
+      <c r="B28" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="111"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="111"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="98"/>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="111"/>
+      <c r="B32" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="111"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="111"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="111"/>
+      <c r="B35" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="111"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="111"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
+      <c r="B38" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="86"/>
+    </row>
+    <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="31" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="67"/>
-    </row>
-    <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="34" t="s">
+      <c r="C40" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="D40" s="96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="111"/>
+      <c r="B41" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="88" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="27" t="s">
+      <c r="D41" s="96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="111"/>
+      <c r="B42" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="88"/>
+      <c r="D42" s="96"/>
+    </row>
+    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="111"/>
+      <c r="B43" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="88"/>
+      <c r="D43" s="96"/>
+    </row>
+    <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="111"/>
+      <c r="B44" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="88"/>
+      <c r="D44" s="96"/>
+    </row>
+    <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="111"/>
+      <c r="B45" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="111"/>
+      <c r="B46" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="96"/>
+    </row>
+    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="111"/>
+      <c r="B47" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" s="100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="111"/>
+      <c r="B48" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="111"/>
+      <c r="B49" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="111"/>
+      <c r="B50" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="111"/>
+      <c r="B51" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="111"/>
+      <c r="B52" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="101" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="112"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="86"/>
+    </row>
+    <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="111"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="111"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="D56" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="111"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="111"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="111"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="111"/>
+      <c r="B61" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="111"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="98"/>
+      <c r="E62" s="57"/>
+    </row>
+    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="111"/>
+      <c r="B63" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="111"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="98"/>
+      <c r="E64" s="57"/>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="111"/>
+      <c r="B65" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="111"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" s="98"/>
+      <c r="E66" s="57"/>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="111"/>
+      <c r="B67" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="111"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="98"/>
+      <c r="E68" s="57"/>
+    </row>
+    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="111"/>
+      <c r="B69" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="88" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="111"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="98"/>
+      <c r="E70" s="57"/>
+    </row>
+    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="111"/>
+      <c r="B71" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="111"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="98"/>
+      <c r="E72" s="57"/>
+    </row>
+    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="111"/>
+      <c r="B75" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="111"/>
+      <c r="B76" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="111"/>
+      <c r="B77" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="111"/>
+      <c r="B79" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="111"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="112"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="86"/>
+    </row>
+    <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="111"/>
+      <c r="B83" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="111"/>
+      <c r="B84" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="88"/>
+      <c r="D84" s="96" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="31" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
-      <c r="B42" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D47" s="100" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" s="100" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
-      <c r="B49" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="100" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50" s="100" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
-      <c r="B51" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="D51" s="100" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="25" t="s">
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="111"/>
+      <c r="B85" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="88"/>
+      <c r="D85" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="111"/>
+      <c r="B86" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="88"/>
+      <c r="D86" s="96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="111"/>
+      <c r="B87" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="88"/>
+      <c r="D87" s="96"/>
+    </row>
+    <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="111"/>
+      <c r="B88" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="88"/>
+      <c r="D88" s="96"/>
+    </row>
+    <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="111"/>
+      <c r="B89" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="88"/>
+      <c r="D89" s="96"/>
+    </row>
+    <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="111"/>
+      <c r="B90" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="88"/>
+      <c r="D90" s="96"/>
+    </row>
+    <row r="91" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="111"/>
+      <c r="B91" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="88"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="111"/>
+      <c r="B92" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="88"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="111"/>
+      <c r="B93" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="88"/>
+      <c r="D93" s="96"/>
+    </row>
+    <row r="94" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="112"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="86"/>
+    </row>
+    <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="111"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="98"/>
+    </row>
+    <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="111"/>
+      <c r="B97" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="111"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="98"/>
+    </row>
+    <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="111"/>
+      <c r="B99" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="88"/>
+      <c r="D99" s="96"/>
+    </row>
+    <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="111"/>
+      <c r="B100" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="88"/>
+      <c r="D100" s="96"/>
+    </row>
+    <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="111"/>
+      <c r="B101" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="88"/>
+      <c r="D101" s="96"/>
+    </row>
+    <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="111"/>
+      <c r="B102" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="88"/>
+      <c r="D102" s="96"/>
+    </row>
+    <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="111"/>
+      <c r="B103" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="88"/>
+      <c r="D103" s="96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="111"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="111"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="111"/>
+      <c r="B106" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="88"/>
+      <c r="D106" s="96"/>
+    </row>
+    <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="111"/>
+      <c r="B107" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="88"/>
+      <c r="D107" s="96"/>
+    </row>
+    <row r="108" spans="1:5" s="25" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="112"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="86"/>
+    </row>
+    <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="96" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="114"/>
+      <c r="B110" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="D52" s="100" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="31" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="30"/>
-    </row>
-    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E61" s="99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="99"/>
-    </row>
-    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="99"/>
-    </row>
-    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E65" s="99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="99"/>
-    </row>
-    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="99"/>
-    </row>
-    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="99"/>
-    </row>
-    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D71" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E71" s="99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="68"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="99"/>
-    </row>
-    <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68"/>
-      <c r="B76" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
-      <c r="B77" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="37" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="30"/>
-    </row>
-    <row r="81" spans="1:5" s="31" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="33"/>
-    </row>
-    <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
-      <c r="B83" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
-      <c r="B84" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="E84" s="30"/>
-    </row>
-    <row r="85" spans="1:5" s="23" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
-      <c r="B85" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="30"/>
-    </row>
-    <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="68"/>
-      <c r="B86" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="68"/>
-      <c r="B87" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="38"/>
-    </row>
-    <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
-      <c r="B88" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="38"/>
-    </row>
-    <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
-      <c r="B89" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
-      <c r="B90" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
-      <c r="B91" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="30"/>
-    </row>
-    <row r="92" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68"/>
-      <c r="B92" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="30"/>
-    </row>
-    <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
-      <c r="B93" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="31" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="33"/>
-    </row>
-    <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="67"/>
-    </row>
-    <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="67"/>
-    </row>
-    <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
-      <c r="B99" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
-      <c r="B100" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
-      <c r="B101" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
-      <c r="B102" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="30"/>
-    </row>
-    <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
-      <c r="B107" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="31" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="33"/>
-    </row>
-    <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="28" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="29"/>
-      <c r="E111" s="32"/>
+    </row>
+    <row r="111" spans="1:5" s="22" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="23"/>
+      <c r="E111" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="A78:A80"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="C79:C80"/>
@@ -4294,40 +4595,6 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A95:A107"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,343 +4612,344 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="16"/>
-    <col min="2" max="2" width="20" style="36"/>
-    <col min="3" max="3" width="20" style="16"/>
-    <col min="4" max="4" width="21.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="76" style="16" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="15" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="20" style="16"/>
+    <col min="1" max="1" width="20" style="14"/>
+    <col min="2" max="2" width="20" style="28"/>
+    <col min="3" max="3" width="20" style="14"/>
+    <col min="4" max="4" width="21.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="76" style="14" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="20" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="78" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" s="72"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="47" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I4" s="74" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="B15" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E15" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="65" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="39"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="39"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G3:G6"/>
@@ -4698,7 +4966,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4727,64 +4994,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4815,16 +5082,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -4853,23 +5120,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -4881,16 +5148,16 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -4949,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -4967,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -4977,7 +5244,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,52 +5296,52 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB7218-1FB7-4754-8905-54EB79BE9FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11B76E-4AF9-46B0-B3BA-BB6D89F52AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="28545" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="2385" windowWidth="18990" windowHeight="18615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -1845,7 +1845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1991,6 +1991,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2650,7 +2659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2799,18 +2808,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2820,9 +2817,102 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,12 +2956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2907,92 +2991,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3327,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3342,583 +3354,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="61" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="62" t="s">
         <v>271</v>
       </c>
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="105" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="62" t="s">
         <v>272</v>
       </c>
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="62" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="105" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="62" t="s">
         <v>279</v>
       </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="96" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="62" t="s">
         <v>273</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="105" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="62" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="62" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="25" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="86"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="62" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="88" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="96"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="111"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="88" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="62" t="s">
         <v>281</v>
       </c>
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="88" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="96"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="88" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="96"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="88" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111"/>
-      <c r="B19" s="107" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="62" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="88" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="62" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="87" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="62" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="96" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="62" t="s">
         <v>288</v>
       </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="107" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="87" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="96" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="96" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="87" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="62" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="98" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="76" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="111"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="76"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107" t="s">
+      <c r="A32" s="79"/>
+      <c r="B32" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="62" t="s">
         <v>289</v>
       </c>
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="88" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="62" t="s">
         <v>290</v>
       </c>
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="88" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="96" t="s">
+      <c r="D34" s="62" t="s">
         <v>291</v>
       </c>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="62" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="88" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="62" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="88" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="62" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="105" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="62" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="86"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="53"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="62" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="105" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="62" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="105" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="96"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="105" t="s">
+      <c r="A43" s="79"/>
+      <c r="B43" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="96"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="105" t="s">
+      <c r="A44" s="79"/>
+      <c r="B44" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="96"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="108" t="s">
+      <c r="A45" s="79"/>
+      <c r="B45" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="64" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="105" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="96"/>
+      <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="108" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="D47" s="100" t="s">
+      <c r="D47" s="65" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="105" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="66" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="105" t="s">
+      <c r="A49" s="79"/>
+      <c r="B49" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="66" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="105" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="66" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="105" t="s">
+      <c r="A51" s="79"/>
+      <c r="B51" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="66" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="105" t="s">
+      <c r="A52" s="79"/>
+      <c r="B52" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="66" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="86"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="53"/>
     </row>
     <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="88" t="s">
+      <c r="C54" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="62" t="s">
         <v>329</v>
       </c>
       <c r="E54" s="24" t="s">
@@ -3926,12 +3938,12 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="88" t="s">
+      <c r="A55" s="79"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="D55" s="96" t="s">
+      <c r="D55" s="62" t="s">
         <v>328</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -3939,12 +3951,12 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="88" t="s">
+      <c r="A56" s="79"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="D56" s="96" t="s">
+      <c r="D56" s="62" t="s">
         <v>330</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -3952,12 +3964,12 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="111"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="88" t="s">
+      <c r="A57" s="79"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="D57" s="96" t="s">
+      <c r="D57" s="62" t="s">
         <v>335</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -3965,12 +3977,12 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="111"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="88" t="s">
+      <c r="A58" s="79"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="D58" s="96" t="s">
+      <c r="D58" s="62" t="s">
         <v>336</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -3978,27 +3990,27 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="111"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="88" t="s">
+      <c r="A59" s="79"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="D59" s="96" t="s">
+      <c r="D59" s="62" t="s">
         <v>327</v>
       </c>
       <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="105" t="s">
+      <c r="B60" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="62" t="s">
         <v>340</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -4006,160 +4018,160 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111"/>
-      <c r="B61" s="107" t="s">
+      <c r="A61" s="79"/>
+      <c r="B61" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="82" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="111"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="88" t="s">
+      <c r="A62" s="79"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="57"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="82"/>
     </row>
     <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="111"/>
-      <c r="B63" s="107" t="s">
+      <c r="A63" s="79"/>
+      <c r="B63" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="82" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="111"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="88" t="s">
+      <c r="A64" s="79"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="57"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="82"/>
     </row>
     <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="111"/>
-      <c r="B65" s="107" t="s">
+      <c r="A65" s="79"/>
+      <c r="B65" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="98" t="s">
+      <c r="D65" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="82" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="111"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="88" t="s">
+      <c r="A66" s="79"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="D66" s="98"/>
-      <c r="E66" s="57"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="111"/>
-      <c r="B67" s="107" t="s">
+      <c r="A67" s="79"/>
+      <c r="B67" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="D67" s="98" t="s">
+      <c r="D67" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="82" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="111"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="88" t="s">
+      <c r="A68" s="79"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="57"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="111"/>
-      <c r="B69" s="107" t="s">
+      <c r="A69" s="79"/>
+      <c r="B69" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="D69" s="98" t="s">
+      <c r="D69" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="82" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="111"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="88" t="s">
+      <c r="A70" s="79"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="D70" s="98"/>
-      <c r="E70" s="57"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="82"/>
     </row>
     <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111"/>
-      <c r="B71" s="107" t="s">
+      <c r="A71" s="79"/>
+      <c r="B71" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="98" t="s">
+      <c r="D71" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="E71" s="57" t="s">
+      <c r="E71" s="82" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="111"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="88" t="s">
+      <c r="A72" s="79"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="57"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="82"/>
     </row>
     <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="113" t="s">
+      <c r="A73" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="105" t="s">
+      <c r="B73" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="88" t="s">
+      <c r="C73" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="62" t="s">
         <v>341</v>
       </c>
       <c r="E73" s="24" t="s">
@@ -4167,16 +4179,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="111" t="s">
+      <c r="A74" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="105" t="s">
+      <c r="B74" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="C74" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D74" s="62" t="s">
         <v>319</v>
       </c>
       <c r="E74" s="24" t="s">
@@ -4184,14 +4196,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="111"/>
-      <c r="B75" s="105" t="s">
+      <c r="A75" s="79"/>
+      <c r="B75" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="C75" s="88" t="s">
+      <c r="C75" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" s="62" t="s">
         <v>320</v>
       </c>
       <c r="E75" s="24" t="s">
@@ -4199,343 +4211,343 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="111"/>
-      <c r="B76" s="105" t="s">
+      <c r="A76" s="79"/>
+      <c r="B76" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="D76" s="62" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="111"/>
-      <c r="B77" s="105" t="s">
+      <c r="A77" s="79"/>
+      <c r="B77" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="88" t="s">
+      <c r="C77" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="96" t="s">
+      <c r="D77" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="88" t="s">
+      <c r="C78" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="62" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="111"/>
-      <c r="B79" s="107" t="s">
+      <c r="A79" s="79"/>
+      <c r="B79" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="C79" s="87" t="s">
+      <c r="C79" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="96" t="s">
+      <c r="D79" s="62" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="111"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="96" t="s">
+      <c r="A80" s="79"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="62" t="s">
         <v>135</v>
       </c>
       <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="112"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="86"/>
+      <c r="A81" s="74"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="53"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="105" t="s">
+      <c r="B82" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="96" t="s">
+      <c r="D82" s="62" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="111"/>
-      <c r="B83" s="105" t="s">
+      <c r="A83" s="79"/>
+      <c r="B83" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D83" s="96" t="s">
+      <c r="D83" s="62" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="111"/>
-      <c r="B84" s="105" t="s">
+      <c r="A84" s="79"/>
+      <c r="B84" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="96" t="s">
+      <c r="C84" s="54"/>
+      <c r="D84" s="62" t="s">
         <v>195</v>
       </c>
       <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="111"/>
-      <c r="B85" s="105" t="s">
+      <c r="A85" s="79"/>
+      <c r="B85" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="88"/>
-      <c r="D85" s="96" t="s">
+      <c r="C85" s="54"/>
+      <c r="D85" s="62" t="s">
         <v>196</v>
       </c>
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="111"/>
-      <c r="B86" s="105" t="s">
+      <c r="A86" s="79"/>
+      <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="88"/>
-      <c r="D86" s="96" t="s">
+      <c r="C86" s="54"/>
+      <c r="D86" s="62" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="111"/>
-      <c r="B87" s="105" t="s">
+      <c r="A87" s="79"/>
+      <c r="B87" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="96"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="62"/>
     </row>
     <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="111"/>
-      <c r="B88" s="105" t="s">
+      <c r="A88" s="79"/>
+      <c r="B88" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="96"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="62"/>
     </row>
     <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="111"/>
-      <c r="B89" s="105" t="s">
+      <c r="A89" s="79"/>
+      <c r="B89" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="96"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="62"/>
     </row>
     <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="111"/>
-      <c r="B90" s="105" t="s">
+      <c r="A90" s="79"/>
+      <c r="B90" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="96"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="62"/>
     </row>
     <row r="91" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="111"/>
-      <c r="B91" s="105" t="s">
+      <c r="A91" s="79"/>
+      <c r="B91" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="96"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="111"/>
-      <c r="B92" s="105" t="s">
+      <c r="A92" s="79"/>
+      <c r="B92" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="88"/>
-      <c r="D92" s="96"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="62"/>
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="111"/>
-      <c r="B93" s="105" t="s">
+      <c r="A93" s="79"/>
+      <c r="B93" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="96"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="62"/>
     </row>
     <row r="94" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="112"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="86"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="53"/>
     </row>
     <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="111" t="s">
+      <c r="A95" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="98" t="s">
+      <c r="D95" s="76" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="111"/>
-      <c r="B96" s="107"/>
-      <c r="C96" s="88" t="s">
+      <c r="A96" s="79"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="98"/>
+      <c r="D96" s="76"/>
     </row>
     <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="111"/>
-      <c r="B97" s="107" t="s">
+      <c r="A97" s="79"/>
+      <c r="B97" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="88" t="s">
+      <c r="C97" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="98" t="s">
+      <c r="D97" s="76" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="111"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="88" t="s">
+      <c r="A98" s="79"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="98"/>
+      <c r="D98" s="76"/>
     </row>
     <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="111"/>
-      <c r="B99" s="105" t="s">
+      <c r="A99" s="79"/>
+      <c r="B99" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="88"/>
-      <c r="D99" s="96"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="62"/>
     </row>
     <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="111"/>
-      <c r="B100" s="105" t="s">
+      <c r="A100" s="79"/>
+      <c r="B100" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="88"/>
-      <c r="D100" s="96"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="62"/>
     </row>
     <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="111"/>
-      <c r="B101" s="105" t="s">
+      <c r="A101" s="79"/>
+      <c r="B101" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="96"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="62"/>
     </row>
     <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="111"/>
-      <c r="B102" s="105" t="s">
+      <c r="A102" s="79"/>
+      <c r="B102" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="88"/>
-      <c r="D102" s="96"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="62"/>
     </row>
     <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="111"/>
-      <c r="B103" s="107" t="s">
+      <c r="A103" s="79"/>
+      <c r="B103" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="88"/>
-      <c r="D103" s="96" t="s">
+      <c r="C103" s="54"/>
+      <c r="D103" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="111"/>
-      <c r="B104" s="107"/>
-      <c r="C104" s="87" t="s">
+      <c r="A104" s="79"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" s="62" t="s">
         <v>115</v>
       </c>
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="111"/>
-      <c r="B105" s="107"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="96" t="s">
+      <c r="A105" s="79"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="111"/>
-      <c r="B106" s="105" t="s">
+      <c r="A106" s="79"/>
+      <c r="B106" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="96"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="62"/>
     </row>
     <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
-      <c r="B107" s="105" t="s">
+      <c r="A107" s="79"/>
+      <c r="B107" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="88"/>
-      <c r="D107" s="96"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="62"/>
     </row>
     <row r="108" spans="1:5" s="25" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="86"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="53"/>
     </row>
     <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="111" t="s">
+      <c r="A109" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="105" t="s">
+      <c r="B109" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="88" t="s">
+      <c r="C109" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D109" s="96" t="s">
+      <c r="D109" s="62" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="114"/>
-      <c r="B110" s="109" t="s">
+      <c r="A110" s="81"/>
+      <c r="B110" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="C110" s="102" t="s">
+      <c r="C110" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D110" s="103" t="s">
+      <c r="D110" s="68" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4545,6 +4557,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="B103:B105"/>
@@ -4561,40 +4607,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A95:A107"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A60:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4606,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4630,28 +4642,28 @@
       <c r="B1" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="96" t="s">
         <v>201</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -4660,96 +4672,96 @@
       <c r="E2" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="33" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="89" t="s">
         <v>242</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="72"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="33" t="s">
         <v>206</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="74"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="46" t="s">
         <v>201</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="63"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="89" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -4758,23 +4770,23 @@
       <c r="E6" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="35" t="s">
         <v>209</v>
       </c>
@@ -4789,10 +4801,10 @@
       <c r="A8" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="96" t="s">
         <v>210</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -4806,10 +4818,10 @@
       <c r="A9" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="46" t="s">
         <v>212</v>
       </c>
@@ -4821,13 +4833,13 @@
       <c r="A10" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="49" t="s">
         <v>236</v>
       </c>
@@ -4836,13 +4848,13 @@
       <c r="A11" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="38" t="s">
         <v>237</v>
       </c>
@@ -4851,13 +4863,13 @@
       <c r="A12" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="38" t="s">
         <v>239</v>
       </c>
@@ -4866,13 +4878,13 @@
       <c r="A13" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="39" t="s">
         <v>240</v>
       </c>
@@ -4881,10 +4893,10 @@
       <c r="A14" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="96" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -4898,10 +4910,10 @@
       <c r="A15" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="35" t="s">
         <v>10</v>
       </c>
@@ -4909,7 +4921,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="92" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
     </row>
@@ -4949,6 +4961,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C1:D1"/>
@@ -4965,7 +4978,6 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4994,40 +5006,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -5085,13 +5097,13 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -5123,13 +5135,13 @@
       <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -5151,13 +5163,13 @@
       <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -5299,49 +5311,49 @@
       <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11B76E-4AF9-46B0-B3BA-BB6D89F52AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F35D63-4CB5-4DF3-A3DA-A33AF1F68276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="2385" windowWidth="18990" windowHeight="18615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23790" yWindow="795" windowWidth="33555" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="362">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,14 +527,6 @@
   </si>
   <si>
     <t>mul 16_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev 8_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev 16_reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1838,6 +1826,22 @@
       </rPr>
       <t>偏移地址</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div 8_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div 16_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被除数：默认存放在 AX 中；结果：AX - 商，DX - 余数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2886,27 +2890,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,21 +3008,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3339,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3354,115 +3358,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>153</v>
+      <c r="A1" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="B1" s="69" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="82"/>
+      <c r="B2" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82"/>
+      <c r="B3" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82"/>
+      <c r="B4" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82"/>
+      <c r="B5" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="82"/>
+      <c r="B6" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
-      <c r="B5" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>268</v>
-      </c>
       <c r="D6" s="62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="70" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="82"/>
+      <c r="B8" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
+      <c r="B9" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>273</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="25" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3473,71 +3477,71 @@
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="85" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="82"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="54" t="s">
         <v>281</v>
-      </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="54" t="s">
-        <v>284</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="85" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -3548,8 +3552,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="54" t="s">
         <v>70</v>
       </c>
@@ -3558,8 +3562,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -3570,8 +3574,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="54" t="s">
         <v>73</v>
       </c>
@@ -3580,8 +3584,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -3592,28 +3596,28 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="77" t="s">
-        <v>287</v>
+      <c r="A22" s="82"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="81" t="s">
+        <v>284</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="85" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="54" t="s">
@@ -3624,34 +3628,34 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="77" t="s">
-        <v>286</v>
+      <c r="A25" s="82"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="81" t="s">
+        <v>283</v>
       </c>
       <c r="D25" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="77"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="77"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="54" t="s">
@@ -3662,9 +3666,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="77" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="81" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="62" t="s">
@@ -3672,94 +3676,94 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="76" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="86" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="86"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>101</v>
-      </c>
       <c r="D32" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="62" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="54" t="s">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3770,147 +3774,147 @@
       <c r="E39" s="53"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79" t="s">
-        <v>165</v>
+      <c r="A40" s="82" t="s">
+        <v>162</v>
       </c>
       <c r="B40" s="70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C40" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="70" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82"/>
+      <c r="B46" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>144</v>
-      </c>
       <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82"/>
+      <c r="B48" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="70" t="s">
+      <c r="C50" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82"/>
+      <c r="B51" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="70" t="s">
+      <c r="C51" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" s="66" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="D50" s="66" t="s">
+      <c r="C52" s="58" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="58" t="s">
+      <c r="D52" s="66" t="s">
         <v>353</v>
-      </c>
-      <c r="D51" s="66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52" s="66" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3921,351 +3925,351 @@
       <c r="E53" s="53"/>
     </row>
     <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="82"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="82"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="82"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="82"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="82"/>
+      <c r="B61" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="D54" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="D56" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="D57" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="54" t="s">
-        <v>334</v>
-      </c>
-      <c r="D58" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="79" t="s">
+      <c r="C61" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="84" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="82"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="84"/>
+    </row>
+    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="82"/>
+      <c r="B63" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="C63" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" s="84" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="82"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="D64" s="86"/>
+      <c r="E64" s="84"/>
+    </row>
+    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="82"/>
+      <c r="B65" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C65" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="78" t="s">
+      <c r="D65" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65" s="84" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="82"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="86"/>
+      <c r="E66" s="84"/>
+    </row>
+    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82"/>
+      <c r="B67" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C67" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" s="82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="79"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="54" t="s">
+      <c r="D67" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="84" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="82"/>
-    </row>
-    <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="79"/>
-      <c r="B63" s="78" t="s">
+      <c r="D68" s="86"/>
+      <c r="E68" s="84"/>
+    </row>
+    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="82"/>
+      <c r="B69" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C69" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="D63" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E63" s="82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="79"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="54" t="s">
+      <c r="D69" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69" s="84" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="82"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="82"/>
-    </row>
-    <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="79"/>
-      <c r="B65" s="78" t="s">
+      <c r="D70" s="86"/>
+      <c r="E70" s="84"/>
+    </row>
+    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="82"/>
+      <c r="B71" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C71" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="79"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="54" t="s">
+      <c r="D71" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71" s="84" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="82"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="82"/>
-    </row>
-    <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="79"/>
-      <c r="B67" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="79"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="82"/>
-    </row>
-    <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="79"/>
-      <c r="B69" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="D69" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E69" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="79"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="82"/>
-    </row>
-    <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="79"/>
-      <c r="B71" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="D71" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E71" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="79"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="82"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B73" s="70" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="82"/>
+      <c r="B75" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="D74" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="79"/>
-      <c r="B75" s="70" t="s">
+      <c r="C75" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="D75" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="82"/>
+      <c r="B76" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="82"/>
+      <c r="B77" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="79"/>
-      <c r="B76" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="62" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="79"/>
-      <c r="B77" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="62" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="79" t="s">
-        <v>177</v>
+      <c r="A78" s="82" t="s">
+        <v>174</v>
       </c>
       <c r="B78" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="82"/>
+      <c r="B79" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C79" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="82"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="62" t="s">
         <v>132</v>
-      </c>
-      <c r="D78" s="62" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="79"/>
-      <c r="B79" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="62" t="s">
-        <v>135</v>
       </c>
       <c r="E80" s="24"/>
     </row>
@@ -4277,117 +4281,117 @@
       <c r="E81" s="53"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="79" t="s">
-        <v>186</v>
+      <c r="A82" s="82" t="s">
+        <v>183</v>
       </c>
       <c r="B82" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D82" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="82"/>
+      <c r="B83" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="79"/>
-      <c r="B83" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>123</v>
-      </c>
       <c r="D83" s="62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="79"/>
+      <c r="A84" s="82"/>
       <c r="B84" s="70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="79"/>
+      <c r="A85" s="82"/>
       <c r="B85" s="70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C85" s="54"/>
       <c r="D85" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="79"/>
+      <c r="A86" s="82"/>
       <c r="B86" s="70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="54"/>
       <c r="D86" s="62" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="79"/>
+      <c r="A87" s="82"/>
       <c r="B87" s="70" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C87" s="54"/>
       <c r="D87" s="62"/>
     </row>
     <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="79"/>
+      <c r="A88" s="82"/>
       <c r="B88" s="70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="54"/>
       <c r="D88" s="62"/>
     </row>
     <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="79"/>
+      <c r="A89" s="82"/>
       <c r="B89" s="70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C89" s="54"/>
       <c r="D89" s="62"/>
     </row>
     <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="79"/>
+      <c r="A90" s="82"/>
       <c r="B90" s="70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="62"/>
     </row>
     <row r="91" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="79"/>
+      <c r="A91" s="82"/>
       <c r="B91" s="70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C91" s="54"/>
       <c r="D91" s="62"/>
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="79"/>
+      <c r="A92" s="82"/>
       <c r="B92" s="70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C92" s="54"/>
       <c r="D92" s="62"/>
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
+      <c r="A93" s="82"/>
       <c r="B93" s="70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C93" s="54"/>
       <c r="D93" s="62"/>
@@ -4400,120 +4404,120 @@
       <c r="E94" s="53"/>
     </row>
     <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="78" t="s">
+      <c r="A95" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="85" t="s">
         <v>63</v>
       </c>
       <c r="C95" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="76" t="s">
-        <v>119</v>
+      <c r="D95" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="79"/>
-      <c r="B96" s="78"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="85"/>
       <c r="C96" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="76"/>
+        <v>106</v>
+      </c>
+      <c r="D96" s="86"/>
     </row>
     <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="79"/>
-      <c r="B97" s="78" t="s">
-        <v>108</v>
+      <c r="A97" s="82"/>
+      <c r="B97" s="85" t="s">
+        <v>105</v>
       </c>
       <c r="C97" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="76" t="s">
-        <v>118</v>
+      <c r="D97" s="86" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="79"/>
-      <c r="B98" s="78"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="85"/>
       <c r="C98" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="76"/>
+        <v>107</v>
+      </c>
+      <c r="D98" s="86"/>
     </row>
     <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="79"/>
+      <c r="A99" s="82"/>
       <c r="B99" s="70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C99" s="54"/>
       <c r="D99" s="62"/>
     </row>
     <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="79"/>
+      <c r="A100" s="82"/>
       <c r="B100" s="70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C100" s="54"/>
       <c r="D100" s="62"/>
     </row>
     <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="79"/>
+      <c r="A101" s="82"/>
       <c r="B101" s="70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C101" s="54"/>
       <c r="D101" s="62"/>
     </row>
     <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="79"/>
+      <c r="A102" s="82"/>
       <c r="B102" s="70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C102" s="54"/>
       <c r="D102" s="62"/>
     </row>
     <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="79"/>
-      <c r="B103" s="78" t="s">
-        <v>111</v>
+      <c r="A103" s="82"/>
+      <c r="B103" s="85" t="s">
+        <v>108</v>
       </c>
       <c r="C103" s="54"/>
       <c r="D103" s="62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="79"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="77" t="s">
+      <c r="A104" s="82"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D104" s="62" t="s">
-        <v>115</v>
-      </c>
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="79"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="77"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="81"/>
       <c r="D105" s="62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="79"/>
+      <c r="A106" s="82"/>
       <c r="B106" s="70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C106" s="54"/>
       <c r="D106" s="62"/>
     </row>
     <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="79"/>
+      <c r="A107" s="82"/>
       <c r="B107" s="70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C107" s="54"/>
       <c r="D107" s="62"/>
@@ -4526,29 +4530,29 @@
       <c r="E108" s="53"/>
     </row>
     <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="79" t="s">
-        <v>337</v>
+      <c r="A109" s="82" t="s">
+        <v>334</v>
       </c>
       <c r="B109" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="54" t="s">
-        <v>200</v>
-      </c>
       <c r="D109" s="62" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
+      <c r="A110" s="83"/>
       <c r="B110" s="73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D110" s="68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="22" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4557,6 +4561,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="E61:E62"/>
@@ -4573,40 +4611,6 @@
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A95:A107"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4618,7 +4622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F17DF6-D70A-4BE4-976B-230C056BA7A7}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4637,291 +4641,291 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>204</v>
-      </c>
       <c r="E2" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F2" s="51"/>
-      <c r="G2" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="G2" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="90"/>
+        <v>216</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="95"/>
       <c r="D3" s="33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3" s="51"/>
-      <c r="G3" s="89" t="s">
-        <v>242</v>
+      <c r="G3" s="94" t="s">
+        <v>239</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="99"/>
+        <v>240</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="90"/>
+        <v>217</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="95"/>
       <c r="D4" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F4" s="51"/>
-      <c r="G4" s="90"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" s="84"/>
+        <v>243</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="97"/>
+        <v>218</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="102"/>
       <c r="D5" s="46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5" s="51"/>
-      <c r="G5" s="90"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="84"/>
+        <v>241</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>204</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="91"/>
+        <v>235</v>
+      </c>
+      <c r="G6" s="96"/>
       <c r="H6" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="J6" s="86"/>
+        <v>242</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="91"/>
+        <v>220</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="96"/>
       <c r="D7" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="97"/>
+        <v>222</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="102"/>
       <c r="D9" s="46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="93"/>
+        <v>225</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="98"/>
       <c r="E10" s="49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="94"/>
+        <v>227</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="99"/>
       <c r="E11" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="94"/>
+        <v>226</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="99"/>
       <c r="E12" s="38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="95"/>
+        <v>224</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="100"/>
       <c r="E13" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>210</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="91"/>
+        <v>211</v>
+      </c>
+      <c r="C15" s="96"/>
       <c r="D15" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="92" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="97" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
     </row>
@@ -4961,23 +4965,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5006,40 +5010,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="A1" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -5097,13 +5101,13 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -5135,20 +5139,20 @@
       <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -5163,13 +5167,13 @@
       <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -5228,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -5238,7 +5242,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -5256,7 +5260,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5311,49 +5315,49 @@
       <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F35D63-4CB5-4DF3-A3DA-A33AF1F68276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C4630-E3D4-4072-8AE8-E488D055F9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23790" yWindow="795" windowWidth="33555" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24375" yWindow="2025" windowWidth="24435" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="415">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1842,6 +1842,221 @@
   </si>
   <si>
     <t>被除数：默认存放在 AX 中；结果：AX - 商，DX - 余数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令将 16 位、32 位或 64 位有符号整数源操作数转换为双精度浮点数，并加载到 ST(0)。源操作数符号保留。FILD 支持的内存操作数类型与 MOV 指令一致（间接、变址、基址-变址等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令将浮点操作数从 FPU 栈顶复制到内存（不弹出）。FST 支持的内存操作数类型与 FLD 一致。操作数可以为 32 位、64 位、80 位内存操作数（REAL4、REAL8、 REAL10）或另一个 FPU 寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器操作数
+FADD ST(0), ST(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用的是内存操作数，FADD 将操作数与 ST(0) 相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存操作数
+fadd mySingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相加并出栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令先执行加法操作，再将 ST(0) 弹出堆栈。MASM 支持如下格式：FADDP ST(i),ST(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令先将源操作数转换为扩展双精度浮点数，再与 ST(0) 相加。指令语法如下：FIADD ml6int 或 FIADD m32int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先执行减法，再将 ST(0) 弹出堆栈。MASM 支持如下格式：
+FSUBP ST(i),ST(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令先把源操作数转换为扩展双精度浮点数，再从 ST(0) 中减去该操作数：FISUB m16int 或 FISUB m32int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行目的操作数除以源操作数，被除数保存在目的操作数中。目的操作数总是一个寄存器，源操作数可以为寄存器或者内存操作数。其语法与 FADD 和 FSUB 相同。 除了执行的是除法而不是加法外，FDIV 的操作与 FADD 相同。比如，无参数 FDIV 执行 ST(1) 除以 ST(0)。然后 ST(0) 弹出堆栈，将被除数留在栈顶。使用内存操作数的 FDIV 将 ST(0) 除以内存操作数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先将整数源操作数转换为扩展双精度浮点数，再执行与 ST(0) 的除法。其语法如下：FIDIV ml6int 或 FIDIV m32int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINIT 指令对 FPU 进行初始化。将 FPU 控制字设置为 037Fh，即屏蔽（隐藏）了所有浮点异常；舍入模式设置为最近偶数，计算精度设置为 64 位。建议在程序开始时调用 FINIT, 这样就可以了解处理器的起始状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存浮点值并将其出栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令将 ST(0) 的值复制到内存并将 ST(0) 弹出堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令将 ST(0) 中浮点数值的符号取反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 FADD 没有操作数，则 ST(0)与 ST(1)相加，结果暂存在 ST(l)。然后 ST(0) 弹出堆栈，把加法结果保留在栈顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSUBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相减并出栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDIV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将其源操作数与 ST(0) 进行比较。源操作数可以为内存操作数或 FPU 寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载浮点数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD（加载浮点数值）指令将浮点操作数复制到 FPU 堆栈栈顶（称为 ST(0)）。操作数可以是 32 位、64 位、80 位的内存操作数（REAL4、REAL8、REAL10）或另一个 FPU 寄存器：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存浮点数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令将 ST(0) 的值转换为有符号整数，并把结果保存到目标操作数。保存的值可以为字或双字。FIST 支持的内存操作数类型与 FST 一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FABS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令清除 ST(0) 中数值的符号，以得到它的绝对值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 ST(0) 加到 ST(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FADDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSUB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从目的操作数中减去源操作数，并把结果保存在目的操作数中。目的操作数总是一个 FPU 寄存器，源操作数可以是 FPU 寄存器或者内存操作数。该指令操作数类型与 FADD 指令一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIDIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2053,7 +2268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2653,6 +2868,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2663,7 +2952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2908,23 +3197,65 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2942,39 +3273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3009,6 +3307,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3341,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3358,7 +3674,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="69" t="s">
@@ -3372,7 +3688,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="70" t="s">
         <v>145</v>
       </c>
@@ -3385,7 +3701,7 @@
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="70" t="s">
         <v>146</v>
       </c>
@@ -3398,7 +3714,7 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
@@ -3410,7 +3726,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
@@ -3422,7 +3738,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="70" t="s">
         <v>121</v>
       </c>
@@ -3435,7 +3751,7 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="70" t="s">
         <v>147</v>
       </c>
@@ -3446,7 +3762,7 @@
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="70" t="s">
         <v>136</v>
       </c>
@@ -3458,7 +3774,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="70" t="s">
         <v>137</v>
       </c>
@@ -3477,10 +3793,10 @@
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -3491,8 +3807,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="54" t="s">
         <v>279</v>
       </c>
@@ -3500,8 +3816,8 @@
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="54" t="s">
         <v>280</v>
       </c>
@@ -3509,8 +3825,8 @@
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="84" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -3522,8 +3838,8 @@
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="54" t="s">
         <v>281</v>
       </c>
@@ -3531,8 +3847,8 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="54" t="s">
         <v>282</v>
       </c>
@@ -3540,8 +3856,8 @@
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="85" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="84" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -3552,8 +3868,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="54" t="s">
         <v>70</v>
       </c>
@@ -3562,8 +3878,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="84" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -3574,8 +3890,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="54" t="s">
         <v>73</v>
       </c>
@@ -3584,8 +3900,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="84" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -3596,9 +3912,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86" t="s">
         <v>284</v>
       </c>
       <c r="D22" s="62" t="s">
@@ -3607,17 +3923,17 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="81"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="62" t="s">
         <v>285</v>
       </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="84" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="54" t="s">
@@ -3628,9 +3944,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="86" t="s">
         <v>283</v>
       </c>
       <c r="D25" s="62" t="s">
@@ -3638,24 +3954,24 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="81"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="81"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="54" t="s">
@@ -3666,9 +3982,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="81" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="86" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="62" t="s">
@@ -3676,22 +3992,22 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="86" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="85" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="86"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="85"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="84" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="54" t="s">
@@ -3703,8 +4019,8 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="54" t="s">
         <v>103</v>
       </c>
@@ -3714,8 +4030,8 @@
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="54" t="s">
         <v>104</v>
       </c>
@@ -3725,8 +4041,8 @@
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="84" t="s">
         <v>358</v>
       </c>
       <c r="C35" s="54" t="s">
@@ -3737,8 +4053,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="54" t="s">
         <v>359</v>
       </c>
@@ -3747,8 +4063,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="54" t="s">
         <v>360</v>
       </c>
@@ -3757,7 +4073,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="70" t="s">
         <v>148</v>
       </c>
@@ -3774,7 +4090,7 @@
       <c r="E39" s="53"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="87" t="s">
         <v>162</v>
       </c>
       <c r="B40" s="70" t="s">
@@ -3788,7 +4104,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="70" t="s">
         <v>152</v>
       </c>
@@ -3800,7 +4116,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="70" t="s">
         <v>153</v>
       </c>
@@ -3808,7 +4124,7 @@
       <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="70" t="s">
         <v>154</v>
       </c>
@@ -3816,7 +4132,7 @@
       <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="70" t="s">
         <v>155</v>
       </c>
@@ -3824,7 +4140,7 @@
       <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="72" t="s">
         <v>138</v>
       </c>
@@ -3836,7 +4152,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="70" t="s">
         <v>139</v>
       </c>
@@ -3846,7 +4162,7 @@
       <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="72" t="s">
         <v>156</v>
       </c>
@@ -3858,7 +4174,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="70" t="s">
         <v>157</v>
       </c>
@@ -3870,7 +4186,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="70" t="s">
         <v>158</v>
       </c>
@@ -3882,7 +4198,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="70" t="s">
         <v>159</v>
       </c>
@@ -3894,7 +4210,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="70" t="s">
         <v>160</v>
       </c>
@@ -3906,7 +4222,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="70" t="s">
         <v>161</v>
       </c>
@@ -3925,10 +4241,10 @@
       <c r="E53" s="53"/>
     </row>
     <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="84" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="54" t="s">
@@ -3942,8 +4258,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="85"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="54" t="s">
         <v>321</v>
       </c>
@@ -3955,8 +4271,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="85"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="54" t="s">
         <v>322</v>
       </c>
@@ -3968,8 +4284,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="82"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="54" t="s">
         <v>330</v>
       </c>
@@ -3981,8 +4297,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="54" t="s">
         <v>331</v>
       </c>
@@ -3994,8 +4310,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="54" t="s">
         <v>323</v>
       </c>
@@ -4005,7 +4321,7 @@
       <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="87" t="s">
         <v>164</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -4022,148 +4338,148 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="85" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="84" t="s">
         <v>166</v>
       </c>
       <c r="C61" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="86" t="s">
+      <c r="D61" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E61" s="84" t="s">
+      <c r="E61" s="90" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="82"/>
-      <c r="B62" s="85"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="84"/>
       <c r="C62" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="90"/>
     </row>
     <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="82"/>
-      <c r="B63" s="85" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="84" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="D63" s="86" t="s">
+      <c r="D63" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E63" s="84" t="s">
+      <c r="E63" s="90" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="82"/>
-      <c r="B64" s="85"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="84"/>
       <c r="C64" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="84"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="90"/>
     </row>
     <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="82"/>
-      <c r="B65" s="85" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="84" t="s">
         <v>168</v>
       </c>
       <c r="C65" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E65" s="84" t="s">
+      <c r="E65" s="90" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="82"/>
-      <c r="B66" s="85"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="84"/>
       <c r="C66" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="90"/>
     </row>
     <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="82"/>
-      <c r="B67" s="85" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="84" t="s">
         <v>169</v>
       </c>
       <c r="C67" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="86" t="s">
+      <c r="D67" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E67" s="84" t="s">
+      <c r="E67" s="90" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="82"/>
-      <c r="B68" s="85"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="84"/>
       <c r="C68" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="86"/>
-      <c r="E68" s="84"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="90"/>
     </row>
     <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="82"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="84" t="s">
         <v>170</v>
       </c>
       <c r="C69" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="D69" s="86" t="s">
+      <c r="D69" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E69" s="84" t="s">
+      <c r="E69" s="90" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="82"/>
-      <c r="B70" s="85"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="84"/>
       <c r="C70" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="86"/>
-      <c r="E70" s="84"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="90"/>
     </row>
     <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="82"/>
-      <c r="B71" s="85" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="84" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="D71" s="86" t="s">
+      <c r="D71" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="E71" s="84" t="s">
+      <c r="E71" s="90" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="82"/>
-      <c r="B72" s="85"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="84"/>
       <c r="C72" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="90"/>
     </row>
     <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="75" t="s">
@@ -4183,7 +4499,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="87" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="70" t="s">
@@ -4200,7 +4516,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="82"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="70" t="s">
         <v>312</v>
       </c>
@@ -4215,7 +4531,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="82"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="70" t="s">
         <v>134</v>
       </c>
@@ -4227,7 +4543,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="82"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="70" t="s">
         <v>135</v>
       </c>
@@ -4239,7 +4555,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="87" t="s">
         <v>174</v>
       </c>
       <c r="B78" s="70" t="s">
@@ -4253,11 +4569,11 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="82"/>
-      <c r="B79" s="85" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="C79" s="86" t="s">
         <v>131</v>
       </c>
       <c r="D79" s="62" t="s">
@@ -4265,9 +4581,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="81"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="86"/>
       <c r="D80" s="62" t="s">
         <v>132</v>
       </c>
@@ -4281,7 +4597,7 @@
       <c r="E81" s="53"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="87" t="s">
         <v>183</v>
       </c>
       <c r="B82" s="70" t="s">
@@ -4295,7 +4611,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="82"/>
+      <c r="A83" s="87"/>
       <c r="B83" s="70" t="s">
         <v>114</v>
       </c>
@@ -4307,7 +4623,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="82"/>
+      <c r="A84" s="87"/>
       <c r="B84" s="70" t="s">
         <v>143</v>
       </c>
@@ -4318,7 +4634,7 @@
       <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="82"/>
+      <c r="A85" s="87"/>
       <c r="B85" s="70" t="s">
         <v>144</v>
       </c>
@@ -4329,7 +4645,7 @@
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="82"/>
+      <c r="A86" s="87"/>
       <c r="B86" s="70" t="s">
         <v>175</v>
       </c>
@@ -4339,7 +4655,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="82"/>
+      <c r="A87" s="87"/>
       <c r="B87" s="70" t="s">
         <v>176</v>
       </c>
@@ -4347,7 +4663,7 @@
       <c r="D87" s="62"/>
     </row>
     <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="82"/>
+      <c r="A88" s="87"/>
       <c r="B88" s="70" t="s">
         <v>177</v>
       </c>
@@ -4355,7 +4671,7 @@
       <c r="D88" s="62"/>
     </row>
     <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="82"/>
+      <c r="A89" s="87"/>
       <c r="B89" s="70" t="s">
         <v>178</v>
       </c>
@@ -4363,7 +4679,7 @@
       <c r="D89" s="62"/>
     </row>
     <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="82"/>
+      <c r="A90" s="87"/>
       <c r="B90" s="70" t="s">
         <v>179</v>
       </c>
@@ -4371,7 +4687,7 @@
       <c r="D90" s="62"/>
     </row>
     <row r="91" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="82"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="70" t="s">
         <v>180</v>
       </c>
@@ -4380,7 +4696,7 @@
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="82"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="70" t="s">
         <v>181</v>
       </c>
@@ -4389,7 +4705,7 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="70" t="s">
         <v>182</v>
       </c>
@@ -4404,49 +4720,49 @@
       <c r="E94" s="53"/>
     </row>
     <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="85" t="s">
+      <c r="B95" s="84" t="s">
         <v>63</v>
       </c>
       <c r="C95" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="86" t="s">
+      <c r="D95" s="85" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="82"/>
-      <c r="B96" s="85"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="84"/>
       <c r="C96" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="86"/>
+      <c r="D96" s="85"/>
     </row>
     <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="82"/>
-      <c r="B97" s="85" t="s">
+      <c r="A97" s="87"/>
+      <c r="B97" s="84" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="86" t="s">
+      <c r="D97" s="85" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="82"/>
-      <c r="B98" s="85"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="84"/>
       <c r="C98" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="86"/>
+      <c r="D98" s="85"/>
     </row>
     <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="82"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="70" t="s">
         <v>186</v>
       </c>
@@ -4454,7 +4770,7 @@
       <c r="D99" s="62"/>
     </row>
     <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="82"/>
+      <c r="A100" s="87"/>
       <c r="B100" s="70" t="s">
         <v>187</v>
       </c>
@@ -4462,7 +4778,7 @@
       <c r="D100" s="62"/>
     </row>
     <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="82"/>
+      <c r="A101" s="87"/>
       <c r="B101" s="70" t="s">
         <v>188</v>
       </c>
@@ -4470,7 +4786,7 @@
       <c r="D101" s="62"/>
     </row>
     <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="82"/>
+      <c r="A102" s="87"/>
       <c r="B102" s="70" t="s">
         <v>189</v>
       </c>
@@ -4478,8 +4794,8 @@
       <c r="D102" s="62"/>
     </row>
     <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="82"/>
-      <c r="B103" s="85" t="s">
+      <c r="A103" s="87"/>
+      <c r="B103" s="84" t="s">
         <v>108</v>
       </c>
       <c r="C103" s="54"/>
@@ -4488,9 +4804,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="82"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="81" t="s">
+      <c r="A104" s="87"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="86" t="s">
         <v>109</v>
       </c>
       <c r="D104" s="62" t="s">
@@ -4499,15 +4815,15 @@
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="82"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="81"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="86"/>
       <c r="D105" s="62" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="82"/>
+      <c r="A106" s="87"/>
       <c r="B106" s="70" t="s">
         <v>184</v>
       </c>
@@ -4515,7 +4831,7 @@
       <c r="D106" s="62"/>
     </row>
     <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="82"/>
+      <c r="A107" s="87"/>
       <c r="B107" s="70" t="s">
         <v>185</v>
       </c>
@@ -4530,7 +4846,7 @@
       <c r="E108" s="53"/>
     </row>
     <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="82" t="s">
+      <c r="A109" s="87" t="s">
         <v>334</v>
       </c>
       <c r="B109" s="70" t="s">
@@ -4544,7 +4860,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
+      <c r="A110" s="89"/>
       <c r="B110" s="73" t="s">
         <v>195</v>
       </c>
@@ -4559,43 +4875,232 @@
       <c r="D111" s="23"/>
       <c r="E111" s="26"/>
     </row>
+    <row r="112" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="119" t="s">
+        <v>414</v>
+      </c>
+      <c r="B112" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" s="83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="120"/>
+      <c r="B113" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="D113" s="83" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="120"/>
+      <c r="B114" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="83" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="120"/>
+      <c r="B115" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C115" s="81" t="s">
+        <v>400</v>
+      </c>
+      <c r="D115" s="83" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="120"/>
+      <c r="B116" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" s="83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="120"/>
+      <c r="B117" s="82" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="D117" s="83" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="120"/>
+      <c r="B118" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" s="83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="120"/>
+      <c r="B119" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="D119" s="83" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="120"/>
+      <c r="B120" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="C120" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" s="83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="120"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="D121" s="83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="120"/>
+      <c r="B122" s="124"/>
+      <c r="C122" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="83" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="120"/>
+      <c r="B123" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C123" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123" s="83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="120"/>
+      <c r="B124" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" s="83" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="120"/>
+      <c r="B125" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="83" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="120"/>
+      <c r="B126" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" s="83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="120"/>
+      <c r="B127" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" s="83" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="120"/>
+      <c r="B128" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="81"/>
+      <c r="D128" s="83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="120"/>
+      <c r="B129" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="C129" s="81"/>
+      <c r="D129" s="83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="121"/>
+      <c r="B130" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="D130" s="83" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A95:A107"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C79:C80"/>
+  <mergeCells count="52">
+    <mergeCell ref="A112:A130"/>
+    <mergeCell ref="B120:B122"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E63:E64"/>
@@ -4611,6 +5116,41 @@
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4646,19 +5186,19 @@
       <c r="B1" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -4667,7 +5207,7 @@
       <c r="B2" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="91" t="s">
         <v>198</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -4677,12 +5217,12 @@
         <v>249</v>
       </c>
       <c r="F2" s="51"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
@@ -4691,7 +5231,7 @@
       <c r="B3" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="33" t="s">
         <v>202</v>
       </c>
@@ -4699,16 +5239,16 @@
         <v>230</v>
       </c>
       <c r="F3" s="51"/>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="97" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="104"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
@@ -4717,7 +5257,7 @@
       <c r="B4" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="33" t="s">
         <v>203</v>
       </c>
@@ -4725,14 +5265,14 @@
         <v>228</v>
       </c>
       <c r="F4" s="51"/>
-      <c r="G4" s="95"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -4741,7 +5281,7 @@
       <c r="B5" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="46" t="s">
         <v>198</v>
       </c>
@@ -4749,14 +5289,14 @@
         <v>229</v>
       </c>
       <c r="F5" s="51"/>
-      <c r="G5" s="95"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
@@ -4765,7 +5305,7 @@
       <c r="B6" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="97" t="s">
         <v>204</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -4774,14 +5314,14 @@
       <c r="E6" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="91"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
@@ -4790,7 +5330,7 @@
       <c r="B7" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="35" t="s">
         <v>206</v>
       </c>
@@ -4808,7 +5348,7 @@
       <c r="B8" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="91" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -4825,7 +5365,7 @@
       <c r="B9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="102"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="46" t="s">
         <v>209</v>
       </c>
@@ -4840,7 +5380,7 @@
       <c r="B10" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="97" t="s">
         <v>199</v>
       </c>
       <c r="D10" s="98"/>
@@ -4855,10 +5395,10 @@
       <c r="B11" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="38" t="s">
         <v>234</v>
       </c>
@@ -4870,10 +5410,10 @@
       <c r="B12" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="38" t="s">
         <v>236</v>
       </c>
@@ -4885,10 +5425,10 @@
       <c r="B13" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="39" t="s">
         <v>237</v>
       </c>
@@ -4900,7 +5440,7 @@
       <c r="B14" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="91" t="s">
         <v>210</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -4917,7 +5457,7 @@
       <c r="B15" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="35" t="s">
         <v>10</v>
       </c>
@@ -4925,7 +5465,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="97" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="94" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
     </row>
@@ -4965,16 +5505,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
@@ -5010,40 +5550,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -5101,13 +5641,13 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -5139,13 +5679,13 @@
       <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -5167,13 +5707,13 @@
       <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -5315,49 +5855,49 @@
       <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/指令、寄存器、标志寄存器总结.xlsx
+++ b/指令、寄存器、标志寄存器总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C4630-E3D4-4072-8AE8-E488D055F9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2175C-B1C7-4AB2-85EB-1CF0A632E224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24375" yWindow="2025" windowWidth="24435" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="2070" windowWidth="25080" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="417">
   <si>
     <t>位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2059,12 +2059,21 @@
     <t>FPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>参考网址：http://c.biancheng.net/view/3823.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点指令名用字母 F 开头，以区别于 CPU 指令。指令助记符的第二个字母（通常为 B 或 I）指明如何解释内存操作数：B 表示 BCD 操作数，I 表示二进制整数操作数。
+如果这两个字母都没有使用，则内存操作数将被认为是实数。比如，FBLD 操作对象为 BCD 数值， FILD 操作对象为整数，而 FLD 操作对象为实数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,14 +2172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -2219,8 +2220,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2247,11 +2263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
@@ -2268,7 +2279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2942,17 +2953,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3017,19 +3038,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3059,10 +3071,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3071,7 +3083,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3086,7 +3098,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3095,22 +3107,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3119,16 +3131,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,13 +3152,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3164,34 +3176,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3203,26 +3215,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3230,31 +3284,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3308,29 +3341,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3657,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3669,1471 +3695,1458 @@
     <col min="2" max="2" width="20" style="10"/>
     <col min="3" max="3" width="23" style="10" customWidth="1"/>
     <col min="4" max="4" width="119.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="24"/>
+    <col min="5" max="5" width="20" style="22"/>
     <col min="6" max="16384" width="20" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="58" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="59" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="59" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="25" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="53"/>
+    <row r="10" spans="1:5" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="59" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="54" t="s">
+    <row r="12" spans="1:5" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="88"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="54" t="s">
+      <c r="D12" s="59"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="88"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="54" t="s">
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="88"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="54" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="88"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="84" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="54" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="54" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="88"/>
+      <c r="B21" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="27" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86" t="s">
+    <row r="22" spans="1:5" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="88"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="62" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="87"/>
-      <c r="B24" s="84" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="59" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86" t="s">
+      <c r="A25" s="88"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="59" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="62" t="s">
+      <c r="A26" s="88"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="62" t="s">
+      <c r="A27" s="88"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="59" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="86" t="s">
+      <c r="A29" s="88"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="85" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="92" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="85"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="92"/>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="54" t="s">
+      <c r="A34" s="88"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="88"/>
+      <c r="B35" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="59" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="54" t="s">
+      <c r="A36" s="88"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="59" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="54" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="59" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="70" t="s">
+      <c r="A38" s="88"/>
+      <c r="B38" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="53"/>
+    <row r="39" spans="1:5" s="23" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="59" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="59" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="70" t="s">
+      <c r="A42" s="88"/>
+      <c r="B42" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="62"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="70" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="62"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="70" t="s">
+      <c r="A44" s="88"/>
+      <c r="B44" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="62"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="88"/>
+      <c r="B45" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="70" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="62"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="88"/>
+      <c r="B47" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="62" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="70" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="63" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="88"/>
+      <c r="B49" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="63" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="70" t="s">
+      <c r="A50" s="88"/>
+      <c r="B50" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="63" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="63" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="87"/>
-      <c r="B52" s="70" t="s">
+      <c r="A52" s="88"/>
+      <c r="B52" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="63" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="53"/>
+    <row r="53" spans="1:5" s="23" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="50"/>
     </row>
     <row r="54" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="22" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="54" t="s">
+      <c r="A55" s="88"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="22" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="54" t="s">
+      <c r="A56" s="88"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="54" t="s">
+    <row r="57" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="88"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="62" t="s">
+      <c r="D57" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="22" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="54" t="s">
+    <row r="58" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="88"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="22" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="54" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="62" t="s">
+      <c r="D59" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="E59" s="24"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="22" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="84" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E61" s="90" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="87"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="54" t="s">
+    <row r="62" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="88"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="85"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="90"/>
     </row>
     <row r="63" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="87"/>
-      <c r="B63" s="84" t="s">
+      <c r="A63" s="88"/>
+      <c r="B63" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="D63" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E63" s="90" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="87"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="54" t="s">
+    <row r="64" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="88"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="85"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="90"/>
     </row>
     <row r="65" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="84" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E65" s="90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="87"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="54" t="s">
+    <row r="66" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="88"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="85"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="90"/>
     </row>
     <row r="67" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="87"/>
-      <c r="B67" s="84" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E67" s="90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="87"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="54" t="s">
+    <row r="68" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="88"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="85"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="90"/>
     </row>
     <row r="69" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="87"/>
-      <c r="B69" s="84" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E69" s="90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="54" t="s">
+    <row r="70" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="88"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="85"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="90"/>
     </row>
     <row r="71" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="87"/>
-      <c r="B71" s="84" t="s">
+      <c r="A71" s="88"/>
+      <c r="B71" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="92" t="s">
         <v>301</v>
       </c>
       <c r="E71" s="90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="87"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="54" t="s">
+    <row r="72" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="88"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="85"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="90"/>
     </row>
     <row r="73" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="22" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="22" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="87"/>
-      <c r="B75" s="70" t="s">
+    <row r="75" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="88"/>
+      <c r="B75" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="62" t="s">
+      <c r="D75" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="22" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="87"/>
-      <c r="B76" s="70" t="s">
+      <c r="A76" s="88"/>
+      <c r="B76" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="59" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="87"/>
-      <c r="B77" s="70" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="62" t="s">
+      <c r="D77" s="59" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="59" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="87"/>
-      <c r="B79" s="84" t="s">
+      <c r="A79" s="88"/>
+      <c r="B79" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="D79" s="59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="29" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="87"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="62" t="s">
+    <row r="80" spans="1:5" s="26" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="88"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5" s="25" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="53"/>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" s="23" customFormat="1" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="71"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="50"/>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="62" t="s">
+      <c r="D82" s="59" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="87"/>
-      <c r="B83" s="70" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="D83" s="59" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="87"/>
-      <c r="B84" s="70" t="s">
+      <c r="A84" s="88"/>
+      <c r="B84" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="62" t="s">
+      <c r="C84" s="51"/>
+      <c r="D84" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="24"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="87"/>
-      <c r="B85" s="70" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="62" t="s">
+      <c r="C85" s="51"/>
+      <c r="D85" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="24"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="87"/>
-      <c r="B86" s="70" t="s">
+      <c r="A86" s="88"/>
+      <c r="B86" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="62" t="s">
+      <c r="C86" s="51"/>
+      <c r="D86" s="59" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="87"/>
-      <c r="B87" s="70" t="s">
+      <c r="A87" s="88"/>
+      <c r="B87" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="62"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="87"/>
-      <c r="B88" s="70" t="s">
+      <c r="A88" s="88"/>
+      <c r="B88" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="62"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="87"/>
-      <c r="B89" s="70" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="62"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="87"/>
-      <c r="B90" s="70" t="s">
+      <c r="A90" s="88"/>
+      <c r="B90" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="62"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="59"/>
     </row>
     <row r="91" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="87"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="24"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" spans="1:5" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="87"/>
-      <c r="B92" s="70" t="s">
+      <c r="A92" s="88"/>
+      <c r="B92" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="24"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="22"/>
     </row>
     <row r="93" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="87"/>
-      <c r="B93" s="70" t="s">
+      <c r="A93" s="88"/>
+      <c r="B93" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="62"/>
-    </row>
-    <row r="94" spans="1:5" s="25" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="53"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="59"/>
+    </row>
+    <row r="94" spans="1:5" s="23" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="50"/>
     </row>
     <row r="95" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="87" t="s">
+      <c r="A95" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="84" t="s">
+      <c r="B95" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="85" t="s">
+      <c r="D95" s="92" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="87"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="54" t="s">
+      <c r="A96" s="88"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="85"/>
+      <c r="D96" s="92"/>
     </row>
     <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="87"/>
-      <c r="B97" s="84" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="85" t="s">
+      <c r="D97" s="92" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="87"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="54" t="s">
+      <c r="A98" s="88"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="85"/>
+      <c r="D98" s="92"/>
     </row>
     <row r="99" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="87"/>
-      <c r="B99" s="70" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="62"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="87"/>
-      <c r="B100" s="70" t="s">
+      <c r="A100" s="88"/>
+      <c r="B100" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="62"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="87"/>
-      <c r="B101" s="70" t="s">
+      <c r="A101" s="88"/>
+      <c r="B101" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="62"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="87"/>
-      <c r="B102" s="70" t="s">
+      <c r="A102" s="88"/>
+      <c r="B102" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="62"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="59"/>
     </row>
     <row r="103" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="87"/>
-      <c r="B103" s="84" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="62" t="s">
+      <c r="C103" s="51"/>
+      <c r="D103" s="59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="87"/>
-      <c r="B104" s="84"/>
-      <c r="C104" s="86" t="s">
+      <c r="A104" s="88"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="62" t="s">
+      <c r="D104" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="24"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="87"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="62" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="87"/>
-      <c r="B106" s="70" t="s">
+      <c r="A106" s="88"/>
+      <c r="B106" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="62"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="87"/>
-      <c r="B107" s="70" t="s">
+      <c r="A107" s="88"/>
+      <c r="B107" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="62"/>
-    </row>
-    <row r="108" spans="1:5" s="25" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="53"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="59"/>
+    </row>
+    <row r="108" spans="1:5" s="23" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="71"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="50"/>
     </row>
     <row r="109" spans="1:5" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="87" t="s">
+      <c r="A109" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="54" t="s">
+      <c r="C109" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="D109" s="62" t="s">
+      <c r="D109" s="59" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="89"/>
-      <c r="B110" s="73" t="s">
+      <c r="B110" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="68" t="s">
+      <c r="D110" s="65" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="22" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="23"/>
-      <c r="E111" s="26"/>
-    </row>
-    <row r="112" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="119" t="s">
+    <row r="111" spans="1:5" s="23" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="71"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="50"/>
+    </row>
+    <row r="112" spans="1:5" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="B112" s="82" t="s">
+      <c r="B112" s="125" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="126"/>
+      <c r="D112" s="126"/>
+    </row>
+    <row r="113" spans="1:5" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="83"/>
+      <c r="B113" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="C112" s="81" t="s">
+      <c r="C113" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="D112" s="83" t="s">
+      <c r="D113" s="80" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="120"/>
-      <c r="B113" s="82" t="s">
+      <c r="E113" s="81"/>
+    </row>
+    <row r="114" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="83"/>
+      <c r="B114" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="81" t="s">
+      <c r="C114" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="D113" s="83" t="s">
+      <c r="D114" s="80" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="120"/>
-      <c r="B114" s="82" t="s">
+    <row r="115" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="83"/>
+      <c r="B115" s="79" t="s">
         <v>379</v>
       </c>
-      <c r="C114" s="81" t="s">
+      <c r="C115" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="D114" s="83" t="s">
+      <c r="D115" s="80" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="120"/>
-      <c r="B115" s="82" t="s">
+    <row r="116" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="83"/>
+      <c r="B116" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="C115" s="81" t="s">
+      <c r="C116" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="D115" s="83" t="s">
+      <c r="D116" s="80" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="120"/>
-      <c r="B116" s="82" t="s">
+    <row r="117" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="83"/>
+      <c r="B117" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="81" t="s">
+      <c r="C117" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="D116" s="83" t="s">
+      <c r="D117" s="80" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="120"/>
-      <c r="B117" s="82" t="s">
+    <row r="118" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="83"/>
+      <c r="B118" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="C117" s="81" t="s">
+      <c r="C118" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="D117" s="83" t="s">
+      <c r="D118" s="80" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="120"/>
-      <c r="B118" s="82" t="s">
+    <row r="119" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="83"/>
+      <c r="B119" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="C118" s="81" t="s">
+      <c r="C119" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="D118" s="83" t="s">
+      <c r="D119" s="80" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="120"/>
-      <c r="B119" s="82" t="s">
+    <row r="120" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="83"/>
+      <c r="B120" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="C119" s="81" t="s">
+      <c r="C120" s="78" t="s">
         <v>405</v>
       </c>
-      <c r="D119" s="83" t="s">
+      <c r="D120" s="80" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="120"/>
-      <c r="B120" s="122" t="s">
+    <row r="121" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="83"/>
+      <c r="B121" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="C120" s="81" t="s">
+      <c r="C121" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="D120" s="83" t="s">
+      <c r="D121" s="80" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="120"/>
-      <c r="B121" s="123"/>
-      <c r="C121" s="81" t="s">
+    <row r="122" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="83"/>
+      <c r="B122" s="86"/>
+      <c r="C122" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="D121" s="83" t="s">
+      <c r="D122" s="80" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="120"/>
-      <c r="B122" s="124"/>
-      <c r="C122" s="81" t="s">
+    <row r="123" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="83"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="D122" s="83" t="s">
+      <c r="D123" s="80" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="120"/>
-      <c r="B123" s="82" t="s">
+    <row r="124" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="83"/>
+      <c r="B124" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="C123" s="81" t="s">
+      <c r="C124" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="D123" s="83" t="s">
+      <c r="D124" s="80" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="120"/>
-      <c r="B124" s="82" t="s">
+    <row r="125" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="83"/>
+      <c r="B125" s="79" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="81" t="s">
+      <c r="C125" s="78" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="83" t="s">
+      <c r="D125" s="80" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="120"/>
-      <c r="B125" s="82" t="s">
+    <row r="126" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="83"/>
+      <c r="B126" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="C125" s="81" t="s">
+      <c r="C126" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="83" t="s">
+      <c r="D126" s="80" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="120"/>
-      <c r="B126" s="82" t="s">
+    <row r="127" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="83"/>
+      <c r="B127" s="79" t="s">
         <v>391</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C127" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="D126" s="83" t="s">
+      <c r="D127" s="80" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="120"/>
-      <c r="B127" s="82" t="s">
+    <row r="128" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="83"/>
+      <c r="B128" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="C127" s="81" t="s">
+      <c r="C128" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="D127" s="83" t="s">
+      <c r="D128" s="80" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="120"/>
-      <c r="B128" s="82" t="s">
+    <row r="129" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="83"/>
+      <c r="B129" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="C128" s="81"/>
-      <c r="D128" s="83" t="s">
+      <c r="C129" s="78"/>
+      <c r="D129" s="80" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="120"/>
-      <c r="B129" s="82" t="s">
+    <row r="130" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="83"/>
+      <c r="B130" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="C129" s="81"/>
-      <c r="D129" s="83" t="s">
+      <c r="C130" s="78"/>
+      <c r="D130" s="80" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="121"/>
-      <c r="B130" s="82" t="s">
+    <row r="131" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="84"/>
+      <c r="B131" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="C130" s="81" t="s">
+      <c r="C131" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="D130" s="83" t="s">
+      <c r="D131" s="80" t="s">
         <v>396</v>
       </c>
     </row>
+    <row r="132" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="123" t="s">
+        <v>415</v>
+      </c>
+      <c r="B132" s="124"/>
+      <c r="C132" s="124"/>
+      <c r="D132" s="91"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A112:A130"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A60:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A11:A38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A95:A107"/>
-    <mergeCell ref="B97:B98"/>
+  <mergeCells count="54">
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="B112:D112"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
@@ -5150,7 +5163,42 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A112:A131"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5169,7 +5217,7 @@
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="14"/>
-    <col min="2" max="2" width="20" style="28"/>
+    <col min="2" max="2" width="20" style="25"/>
     <col min="3" max="3" width="20" style="14"/>
     <col min="4" max="4" width="21.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="76" style="14" customWidth="1"/>
@@ -5180,336 +5228,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="97" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="96"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="105"/>
+      <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="39" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="103"/>
+      <c r="D9" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="44" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="46" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="35" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="100" t="s">
         <v>200</v>
       </c>
       <c r="D13" s="101"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="39" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="94" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="95" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="30"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="30"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="G2:J2"/>
@@ -5522,6 +5565,11 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5550,40 +5598,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -5641,13 +5689,13 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -5679,13 +5727,13 @@
       <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -5707,13 +5755,13 @@
       <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -5855,49 +5903,49 @@
       <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
     </row>
     <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
     </row>
     <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="10">
